--- a/study/data/stats/combined/stats-combined-eval-results.xlsx
+++ b/study/data/stats/combined/stats-combined-eval-results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-12" yWindow="13884" windowWidth="37716" windowHeight="7416" activeTab="2"/>
+    <workbookView xWindow="1032" yWindow="1056" windowWidth="41880" windowHeight="17316"/>
   </bookViews>
   <sheets>
     <sheet name="Results by Model" sheetId="18" r:id="rId1"/>
@@ -188,7 +188,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="108">
   <si>
     <t>cycling</t>
   </si>
@@ -508,6 +508,12 @@
     <t xml:space="preserve">This table shows the Classification Manual Agreement value of each UD-ML model alongside the V4o-M2 Synthetic Evaluation Score.  A proximity ratio and squared error are calculated to show the closeness of the synthetic to manual classifications.
 </t>
   </si>
+  <si>
+    <t>Phoebe</t>
+  </si>
+  <si>
+    <t>Usha</t>
+  </si>
 </sst>
 </file>
 
@@ -515,9 +521,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="0.0%"/>
-    <numFmt numFmtId="168" formatCode="0.0\%"/>
-    <numFmt numFmtId="169" formatCode="\[0.00\]"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="166" formatCode="0.0\%"/>
+    <numFmt numFmtId="167" formatCode="\[0.00\]"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -795,7 +801,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -807,7 +813,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -816,13 +822,13 @@
     <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -837,22 +843,22 @@
     <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -862,23 +868,8 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -888,13 +879,10 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -903,9 +891,6 @@
     <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -913,14 +898,35 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -975,8 +981,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.21222921459141933"/>
-          <c:y val="5.637681980399932E-2"/>
+          <c:x val="3.1558412563574785E-2"/>
+          <c:y val="3.06998389907144E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -1021,25 +1027,25 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>0.93474426807760136</c:v>
+                  <c:v>0.92773489997312142</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.98746736292428194</c:v>
+                  <c:v>0.97000638162093167</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.97284595300261101</c:v>
+                  <c:v>0.96681557115507344</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.91592689295039165</c:v>
+                  <c:v>0.90970006381620927</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.87063119457485649</c:v>
+                  <c:v>0.85582329317269079</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.89662921348314606</c:v>
+                  <c:v>0.89996665555185063</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.94066317626527052</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.92404072043852781</c:v>
@@ -1051,7 +1057,7 @@
                   <c:v>0.900709219858156</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>0.8900928792569659</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.98581560283687941</c:v>
@@ -1063,16 +1069,16 @@
                   <c:v>0.94670846394984332</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>0.87770897832817341</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>0.91797556719022688</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>0.97382198952879584</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>0.90401396160558467</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0.9592795614722005</c:v>
@@ -1209,25 +1215,25 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>0.87333333333333341</c:v>
+                  <c:v>0.86999999999999988</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.93333333333333346</c:v>
+                  <c:v>0.93</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.91333333333333322</c:v>
+                  <c:v>0.90199999999999991</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.71666666666666667</c:v>
+                  <c:v>0.73399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.92</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.89500000000000002</c:v>
+                  <c:v>0.89</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.97</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.93</c:v>
@@ -1239,7 +1245,7 @@
                   <c:v>0.89</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>0.87</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.98</c:v>
@@ -1251,16 +1257,16 @@
                   <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>0.79</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>0.91</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>0.96</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>0.94</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0.94</c:v>
@@ -1283,11 +1289,11 @@
         </c:ser>
         <c:gapWidth val="55"/>
         <c:overlap val="-7"/>
-        <c:axId val="110672512"/>
-        <c:axId val="110674304"/>
+        <c:axId val="35084544"/>
+        <c:axId val="46563712"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="110672512"/>
+        <c:axId val="35084544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1306,24 +1312,24 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="110674304"/>
+        <c:crossAx val="46563712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="110674304"/>
+        <c:axId val="46563712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
-          <c:min val="0.60000000000000009"/>
+          <c:min val="0.60000000000000031"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110672512"/>
+        <c:crossAx val="35084544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -1335,10 +1341,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.61591425164178126"/>
-          <c:y val="4.4351073762838471E-2"/>
-          <c:w val="0.1744647193997016"/>
-          <c:h val="4.2210348706411702E-2"/>
+          <c:x val="0.58392946602629037"/>
+          <c:y val="3.2679738562091512E-2"/>
+          <c:w val="0.17446471939970165"/>
+          <c:h val="4.2210348706411695E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -1347,7 +1353,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1397,8 +1403,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.11557652534526246"/>
-          <c:y val="4.8457214220935435E-2"/>
+          <c:x val="0.11557652534526248"/>
+          <c:y val="4.8457214220935463E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -1416,8 +1422,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="9.326241515163901E-4"/>
-                  <c:y val="0.12348927368677375"/>
+                  <c:x val="9.3262415151639097E-4"/>
+                  <c:y val="0.12348927368677376"/>
                 </c:manualLayout>
               </c:layout>
               <c:spPr/>
@@ -1518,10 +1524,10 @@
                   <c:v>0.22183333333333335</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.51400000000000001</c:v>
+                  <c:v>0.53029999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.59933333333333327</c:v>
+                  <c:v>0.62569999999999992</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.17319999999999999</c:v>
@@ -1533,10 +1539,10 @@
                   <c:v>0.125</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.38999999999999996</c:v>
+                  <c:v>0.37639999999999996</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.38199999999999995</c:v>
+                  <c:v>0.38640000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1544,11 +1550,11 @@
         </c:ser>
         <c:gapWidth val="55"/>
         <c:overlap val="-7"/>
-        <c:axId val="110999424"/>
-        <c:axId val="111000960"/>
+        <c:axId val="47303296"/>
+        <c:axId val="47321472"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="110999424"/>
+        <c:axId val="47303296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1567,24 +1573,24 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="111000960"/>
+        <c:crossAx val="47321472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="111000960"/>
+        <c:axId val="47321472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="0.70000000000000007"/>
+          <c:max val="0.70000000000000029"/>
           <c:min val="0"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110999424"/>
+        <c:crossAx val="47303296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -1594,7 +1600,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1680,39 +1686,39 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>Model</v>
-          </cell>
-        </row>
         <row r="7">
           <cell r="Z7">
-            <v>0.93474426807760136</v>
+            <v>0.92773489997312142</v>
           </cell>
         </row>
         <row r="9">
           <cell r="Z9">
-            <v>0.98746736292428194</v>
+            <v>0.97000638162093167</v>
           </cell>
         </row>
         <row r="10">
           <cell r="Z10">
-            <v>0.97284595300261101</v>
+            <v>0.96681557115507344</v>
           </cell>
         </row>
         <row r="11">
           <cell r="Z11">
-            <v>0.91592689295039165</v>
+            <v>0.90970006381620927</v>
           </cell>
         </row>
         <row r="12">
           <cell r="Z12">
-            <v>0.87063119457485649</v>
+            <v>0.85582329317269079</v>
           </cell>
         </row>
         <row r="13">
           <cell r="Z13">
-            <v>0.89662921348314606</v>
+            <v>0.89996665555185063</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="Z14">
+            <v>0.94066317626527052</v>
           </cell>
         </row>
         <row r="15">
@@ -1730,6 +1736,11 @@
             <v>0.900709219858156</v>
           </cell>
         </row>
+        <row r="18">
+          <cell r="Z18">
+            <v>0.8900928792569659</v>
+          </cell>
+        </row>
         <row r="19">
           <cell r="Z19">
             <v>0.98581560283687941</v>
@@ -1743,6 +1754,26 @@
         <row r="21">
           <cell r="Z21">
             <v>0.94670846394984332</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="Z22">
+            <v>0.87770897832817341</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="Z23">
+            <v>0.91797556719022688</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="Z24">
+            <v>0.97382198952879584</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="Z25">
+            <v>0.90401396160558467</v>
           </cell>
         </row>
         <row r="26">
@@ -1774,37 +1805,37 @@
       <sheetData sheetId="1">
         <row r="6">
           <cell r="N6">
-            <v>0.83599999999999997</v>
+            <v>0.83059999999999989</v>
           </cell>
         </row>
         <row r="8">
           <cell r="N8">
-            <v>0.78033333333333343</v>
+            <v>0.7088000000000001</v>
           </cell>
         </row>
         <row r="9">
           <cell r="N9">
-            <v>0.67300000000000004</v>
+            <v>0.63619999999999999</v>
           </cell>
         </row>
         <row r="10">
           <cell r="N10">
-            <v>0.73733333333333329</v>
+            <v>0.748</v>
           </cell>
         </row>
         <row r="11">
           <cell r="N11">
-            <v>0.72366666666666679</v>
+            <v>0.71450000000000014</v>
           </cell>
         </row>
         <row r="12">
           <cell r="N12">
-            <v>0.23100000000000001</v>
+            <v>0.47700000000000004</v>
           </cell>
         </row>
         <row r="13">
           <cell r="N13">
-            <v>0</v>
+            <v>0.60599999999999998</v>
           </cell>
         </row>
         <row r="14">
@@ -1824,7 +1855,7 @@
         </row>
         <row r="17">
           <cell r="N17">
-            <v>0</v>
+            <v>0.74299999999999999</v>
           </cell>
         </row>
         <row r="18">
@@ -1844,22 +1875,22 @@
         </row>
         <row r="21">
           <cell r="N21">
-            <v>0</v>
+            <v>0.69599999999999995</v>
           </cell>
         </row>
         <row r="22">
           <cell r="N22">
-            <v>0</v>
+            <v>0.72499999999999998</v>
           </cell>
         </row>
         <row r="23">
           <cell r="N23">
-            <v>0</v>
+            <v>0.63800000000000001</v>
           </cell>
         </row>
         <row r="24">
           <cell r="N24">
-            <v>0</v>
+            <v>0.42699999999999999</v>
           </cell>
         </row>
         <row r="25">
@@ -1924,10 +1955,10 @@
             <v>0.32033333333333336</v>
           </cell>
           <cell r="O60">
-            <v>0.67500000000000016</v>
+            <v>0.70299999999999996</v>
           </cell>
           <cell r="R60">
-            <v>0.70533333333333326</v>
+            <v>0.76419999999999999</v>
           </cell>
         </row>
       </sheetData>
@@ -1950,10 +1981,10 @@
             <v>0.12333333333333334</v>
           </cell>
           <cell r="O60">
-            <v>0.35299999999999998</v>
+            <v>0.35759999999999997</v>
           </cell>
           <cell r="R60">
-            <v>0.49333333333333335</v>
+            <v>0.48719999999999997</v>
           </cell>
         </row>
       </sheetData>
@@ -1987,14 +2018,14 @@
             <v>0.125</v>
           </cell>
           <cell r="M60">
-            <v>0.38999999999999996</v>
+            <v>0.37639999999999996</v>
           </cell>
           <cell r="P60">
-            <v>0.38199999999999995</v>
+            <v>0.38640000000000002</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2290,8 +2321,8 @@
   </sheetPr>
   <dimension ref="A1:U60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M47" sqref="M47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2338,88 +2369,88 @@
       <c r="U2" s="16"/>
     </row>
     <row r="3" spans="1:21" ht="52.2" customHeight="1">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="70" t="s">
         <v>100</v>
       </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="60"/>
-      <c r="P3" s="60"/>
-      <c r="Q3" s="60"/>
-      <c r="R3" s="60"/>
-      <c r="S3" s="60"/>
-      <c r="T3" s="60"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="70"/>
+      <c r="N3" s="70"/>
+      <c r="O3" s="70"/>
+      <c r="P3" s="70"/>
+      <c r="Q3" s="70"/>
+      <c r="R3" s="70"/>
+      <c r="S3" s="70"/>
+      <c r="T3" s="70"/>
     </row>
     <row r="4" spans="1:21" s="4" customFormat="1">
       <c r="A4" s="35"/>
       <c r="B4" s="6"/>
-      <c r="D4" s="56" t="s">
+      <c r="D4" s="71" t="s">
         <v>64</v>
       </c>
-      <c r="E4" s="56"/>
-      <c r="G4" s="67" t="str">
+      <c r="E4" s="71"/>
+      <c r="G4" s="61" t="str">
         <f>'Evaluation Results'!$C$58</f>
         <v>V-M1-A</v>
       </c>
-      <c r="H4" s="67" t="str">
+      <c r="H4" s="61" t="str">
         <f>'Evaluation Results'!$F$58</f>
         <v>V-M1-B</v>
       </c>
-      <c r="I4" s="67" t="str">
+      <c r="I4" s="61" t="str">
         <f>'Evaluation Results'!$I$58</f>
         <v>V-M2</v>
       </c>
-      <c r="J4" s="67" t="str">
+      <c r="J4" s="61" t="str">
         <f>'Evaluation Results'!$L$58</f>
         <v>B-M2</v>
       </c>
-      <c r="K4" s="67" t="str">
+      <c r="K4" s="61" t="str">
         <f>'Evaluation Results'!$O$58</f>
         <v>V4-M2</v>
       </c>
-      <c r="L4" s="67" t="str">
+      <c r="L4" s="61" t="str">
         <f>'Evaluation Results'!$R$58</f>
         <v>V4o-M2</v>
       </c>
-      <c r="M4" s="67" t="str">
+      <c r="M4" s="61" t="str">
         <f>'Evaluation Results'!$U$58</f>
         <v>V-M3</v>
       </c>
-      <c r="N4" s="67" t="str">
+      <c r="N4" s="61" t="str">
         <f>'Evaluation Results'!$X$58</f>
         <v>B-M3</v>
       </c>
-      <c r="O4" s="67" t="str">
+      <c r="O4" s="61" t="str">
         <f>'Evaluation Results'!$AA$58</f>
         <v>E-M3</v>
       </c>
-      <c r="P4" s="67" t="str">
+      <c r="P4" s="61" t="str">
         <f>'Evaluation Results'!$AD$58</f>
         <v>V4-M3</v>
       </c>
-      <c r="Q4" s="67" t="str">
+      <c r="Q4" s="61" t="str">
         <f>'Evaluation Results'!$AG$58</f>
         <v>V4o-M3</v>
       </c>
       <c r="R4" s="9"/>
-      <c r="S4" s="71" t="s">
+      <c r="S4" s="69" t="s">
         <v>98</v>
       </c>
-      <c r="T4" s="71" t="s">
+      <c r="T4" s="69" t="s">
         <v>99</v>
       </c>
-      <c r="U4" s="71"/>
+      <c r="U4" s="69"/>
     </row>
     <row r="5" spans="1:21" s="7" customFormat="1">
       <c r="A5" s="27" t="s">
@@ -2434,54 +2465,54 @@
       <c r="E5" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="G5" s="68">
+      <c r="G5" s="62">
         <f>'Tag Ratings'!$G$6</f>
         <v>0.18391666666666667</v>
       </c>
-      <c r="H5" s="68">
+      <c r="H5" s="62">
         <f>'Tag Ratings'!$G$7</f>
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="I5" s="68">
+      <c r="I5" s="62">
         <f>'Tag Ratings'!$G$8</f>
         <v>-6.2125E-2</v>
       </c>
-      <c r="J5" s="68">
+      <c r="J5" s="62">
         <f>'Tag Ratings'!$G$9</f>
         <v>0.22183333333333335</v>
       </c>
-      <c r="K5" s="68">
+      <c r="K5" s="62">
         <f>'Tag Ratings'!$G$10</f>
-        <v>0.51400000000000001</v>
-      </c>
-      <c r="L5" s="68">
+        <v>0.53029999999999999</v>
+      </c>
+      <c r="L5" s="62">
         <f>'Tag Ratings'!$G$11</f>
-        <v>0.59933333333333327</v>
-      </c>
-      <c r="M5" s="68">
+        <v>0.62569999999999992</v>
+      </c>
+      <c r="M5" s="62">
         <f>'Tag Ratings'!$G$12</f>
         <v>0.17319999999999999</v>
       </c>
-      <c r="N5" s="68">
+      <c r="N5" s="62">
         <f>'Tag Ratings'!$G$13</f>
         <v>9.5333333333333325E-2</v>
       </c>
-      <c r="O5" s="68">
+      <c r="O5" s="62">
         <f>'Tag Ratings'!$G$14</f>
         <v>0.125</v>
       </c>
-      <c r="P5" s="68">
+      <c r="P5" s="62">
         <f>'Tag Ratings'!$G$15</f>
-        <v>0.38999999999999996</v>
-      </c>
-      <c r="Q5" s="68">
+        <v>0.37639999999999996</v>
+      </c>
+      <c r="Q5" s="62">
         <f>'Tag Ratings'!$G$16</f>
-        <v>0.38199999999999995</v>
+        <v>0.38640000000000002</v>
       </c>
       <c r="R5" s="10"/>
-      <c r="S5" s="71"/>
-      <c r="T5" s="71"/>
-      <c r="U5" s="71"/>
+      <c r="S5" s="69"/>
+      <c r="T5" s="69"/>
+      <c r="U5" s="69"/>
     </row>
     <row r="6" spans="1:21" s="7" customFormat="1" ht="6" customHeight="1">
       <c r="A6" s="27"/>
@@ -2511,66 +2542,66 @@
       <c r="B7" s="43"/>
       <c r="D7" s="16">
         <f>[1]CKFCMA!N6</f>
-        <v>0.83599999999999997</v>
+        <v>0.83059999999999989</v>
       </c>
       <c r="E7" s="37">
         <f>[1]POCMA!Z7</f>
-        <v>0.93474426807760136</v>
-      </c>
-      <c r="G7" s="69">
+        <v>0.92773489997312142</v>
+      </c>
+      <c r="G7" s="63">
         <f>'Evaluation Results'!D62</f>
         <v>0.72000000000000008</v>
       </c>
-      <c r="H7" s="69">
+      <c r="H7" s="63">
         <f>'Evaluation Results'!G62</f>
         <v>0.60666666666666658</v>
       </c>
-      <c r="I7" s="69">
+      <c r="I7" s="63">
         <f>'Evaluation Results'!J62</f>
         <v>0.51</v>
       </c>
-      <c r="J7" s="69">
+      <c r="J7" s="63">
         <f>'Evaluation Results'!M62</f>
         <v>0.83666666666666656</v>
       </c>
-      <c r="K7" s="69">
+      <c r="K7" s="63">
         <f>'Evaluation Results'!P62</f>
-        <v>0.83000000000000007</v>
+        <v>0.83200000000000007</v>
       </c>
       <c r="L7" s="16">
         <f>'Evaluation Results'!S62</f>
-        <v>0.87333333333333341</v>
-      </c>
-      <c r="M7" s="69">
+        <v>0.86999999999999988</v>
+      </c>
+      <c r="M7" s="63">
         <f>'Evaluation Results'!V62</f>
         <v>0.51666666666666661</v>
       </c>
-      <c r="N7" s="69">
+      <c r="N7" s="63">
         <f>'Evaluation Results'!Y62</f>
         <v>0.62666666666666671</v>
       </c>
-      <c r="O7" s="69">
+      <c r="O7" s="63">
         <f>'Evaluation Results'!AB62</f>
         <v>0.67666666666666664</v>
       </c>
-      <c r="P7" s="69">
+      <c r="P7" s="63">
         <f>'Evaluation Results'!AE62</f>
-        <v>0.82666666666666666</v>
-      </c>
-      <c r="Q7" s="70">
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="Q7" s="64">
         <f>'Evaluation Results'!AH62</f>
-        <v>0.82666666666666666</v>
+        <v>0.83200000000000007</v>
       </c>
       <c r="R7" s="9" t="s">
         <v>10</v>
       </c>
       <c r="S7" s="15">
         <f t="shared" ref="S7:S17" si="0">IF(E7 &gt;0,(MIN(E7,L7) / MAX(E7, L7)), "")</f>
-        <v>0.93430188679245296</v>
+        <v>0.93776789040188713</v>
       </c>
       <c r="T7" s="15">
         <f>100*(L7-E7)^2</f>
-        <v>0.37713029061647368</v>
+        <v>0.33333186749063487</v>
       </c>
       <c r="U7" s="15"/>
     </row>
@@ -2578,17 +2609,17 @@
       <c r="B8" s="43"/>
       <c r="D8" s="16"/>
       <c r="E8" s="37"/>
-      <c r="G8" s="69"/>
-      <c r="H8" s="69"/>
-      <c r="I8" s="69"/>
-      <c r="J8" s="69"/>
-      <c r="K8" s="69"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="63"/>
       <c r="L8" s="16"/>
-      <c r="M8" s="69"/>
-      <c r="N8" s="69"/>
-      <c r="O8" s="69"/>
-      <c r="P8" s="69"/>
-      <c r="Q8" s="70"/>
+      <c r="M8" s="63"/>
+      <c r="N8" s="63"/>
+      <c r="O8" s="63"/>
+      <c r="P8" s="63"/>
+      <c r="Q8" s="64"/>
       <c r="R8" s="9"/>
       <c r="S8" s="15" t="str">
         <f t="shared" si="0"/>
@@ -2606,66 +2637,66 @@
       </c>
       <c r="D9" s="16">
         <f>[1]CKFCMA!N8</f>
-        <v>0.78033333333333343</v>
+        <v>0.7088000000000001</v>
       </c>
       <c r="E9" s="37">
         <f>[1]POCMA!Z9</f>
-        <v>0.98746736292428194</v>
-      </c>
-      <c r="G9" s="69">
+        <v>0.97000638162093167</v>
+      </c>
+      <c r="G9" s="63">
         <f>'Evaluation Results'!D64</f>
         <v>0.72333333333333327</v>
       </c>
-      <c r="H9" s="69">
+      <c r="H9" s="63">
         <f>'Evaluation Results'!G64</f>
         <v>0.62</v>
       </c>
-      <c r="I9" s="69">
+      <c r="I9" s="63">
         <f>'Evaluation Results'!J64</f>
         <v>0.56999999999999995</v>
       </c>
-      <c r="J9" s="69">
+      <c r="J9" s="63">
         <f>'Evaluation Results'!M64</f>
         <v>0.94999999999999984</v>
       </c>
-      <c r="K9" s="69">
+      <c r="K9" s="63">
         <f>'Evaluation Results'!P64</f>
-        <v>0.88</v>
+        <v>0.876</v>
       </c>
       <c r="L9" s="16">
         <f>'Evaluation Results'!S64</f>
-        <v>0.93333333333333346</v>
-      </c>
-      <c r="M9" s="69">
+        <v>0.93</v>
+      </c>
+      <c r="M9" s="63">
         <f>'Evaluation Results'!V64</f>
         <v>0.72666666666666668</v>
       </c>
-      <c r="N9" s="69">
+      <c r="N9" s="63">
         <f>'Evaluation Results'!Y64</f>
         <v>0.85000000000000009</v>
       </c>
-      <c r="O9" s="69">
+      <c r="O9" s="63">
         <f>'Evaluation Results'!AB64</f>
         <v>0.80666666666666664</v>
       </c>
-      <c r="P9" s="69">
+      <c r="P9" s="63">
         <f>'Evaluation Results'!AE64</f>
-        <v>0.89333333333333342</v>
-      </c>
-      <c r="Q9" s="70">
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="Q9" s="64">
         <f>'Evaluation Results'!AH64</f>
-        <v>0.95000000000000007</v>
+        <v>0.94000000000000006</v>
       </c>
       <c r="R9" s="11" t="s">
         <v>40</v>
       </c>
       <c r="S9" s="15">
         <f t="shared" si="0"/>
-        <v>0.94517891768023987</v>
+        <v>0.95875657894736854</v>
       </c>
       <c r="T9" s="15">
-        <f t="shared" ref="T8:T30" si="1">100*(L9-E9)^2</f>
-        <v>0.2930493159753686</v>
+        <f t="shared" ref="T9:T30" si="1">100*(L9-E9)^2</f>
+        <v>0.16005105703996153</v>
       </c>
       <c r="U9" s="15"/>
     </row>
@@ -2678,66 +2709,66 @@
       </c>
       <c r="D10" s="16">
         <f>[1]CKFCMA!N9</f>
-        <v>0.67300000000000004</v>
+        <v>0.63619999999999999</v>
       </c>
       <c r="E10" s="37">
         <f>[1]POCMA!Z10</f>
-        <v>0.97284595300261101</v>
-      </c>
-      <c r="G10" s="69">
+        <v>0.96681557115507344</v>
+      </c>
+      <c r="G10" s="63">
         <f>'Evaluation Results'!D65</f>
         <v>0.87666666666666659</v>
       </c>
-      <c r="H10" s="69">
+      <c r="H10" s="63">
         <f>'Evaluation Results'!G65</f>
         <v>0.76333333333333331</v>
       </c>
-      <c r="I10" s="69">
+      <c r="I10" s="63">
         <f>'Evaluation Results'!J65</f>
         <v>0.59</v>
       </c>
-      <c r="J10" s="69">
+      <c r="J10" s="63">
         <f>'Evaluation Results'!M65</f>
         <v>0.96333333333333326</v>
       </c>
-      <c r="K10" s="69">
+      <c r="K10" s="63">
         <f>'Evaluation Results'!P65</f>
-        <v>0.89333333333333342</v>
+        <v>0.876</v>
       </c>
       <c r="L10" s="16">
         <f>'Evaluation Results'!S65</f>
-        <v>0.91333333333333322</v>
-      </c>
-      <c r="M10" s="69">
+        <v>0.90199999999999991</v>
+      </c>
+      <c r="M10" s="63">
         <f>'Evaluation Results'!V65</f>
         <v>0.64333333333333331</v>
       </c>
-      <c r="N10" s="69">
+      <c r="N10" s="63">
         <f>'Evaluation Results'!Y65</f>
         <v>0.73333333333333339</v>
       </c>
-      <c r="O10" s="69">
+      <c r="O10" s="63">
         <f>'Evaluation Results'!AB65</f>
         <v>0.76666666666666672</v>
       </c>
-      <c r="P10" s="69">
+      <c r="P10" s="63">
         <f>'Evaluation Results'!AE65</f>
-        <v>0.89</v>
-      </c>
-      <c r="Q10" s="70">
+        <v>0.87200000000000011</v>
+      </c>
+      <c r="Q10" s="64">
         <f>'Evaluation Results'!AH65</f>
-        <v>0.86333333333333329</v>
+        <v>0.85600000000000009</v>
       </c>
       <c r="R10" s="11" t="s">
         <v>26</v>
       </c>
       <c r="S10" s="15">
         <f t="shared" si="0"/>
-        <v>0.93882626587940576</v>
+        <v>0.93295973597359727</v>
       </c>
       <c r="T10" s="15">
         <f t="shared" si="1"/>
-        <v>0.35417518999001096</v>
+        <v>0.42010582641583988</v>
       </c>
       <c r="U10" s="15"/>
     </row>
@@ -2750,66 +2781,66 @@
       </c>
       <c r="D11" s="16">
         <f>[1]CKFCMA!N10</f>
-        <v>0.73733333333333329</v>
+        <v>0.748</v>
       </c>
       <c r="E11" s="37">
         <f>[1]POCMA!Z11</f>
-        <v>0.91592689295039165</v>
-      </c>
-      <c r="G11" s="69">
+        <v>0.90970006381620927</v>
+      </c>
+      <c r="G11" s="63">
         <f>'Evaluation Results'!D66</f>
         <v>0.66333333333333333</v>
       </c>
-      <c r="H11" s="69">
+      <c r="H11" s="63">
         <f>'Evaluation Results'!G66</f>
         <v>0.63</v>
       </c>
-      <c r="I11" s="69">
+      <c r="I11" s="63">
         <f>'Evaluation Results'!J66</f>
         <v>0.41666666666666669</v>
       </c>
-      <c r="J11" s="69">
+      <c r="J11" s="63">
         <f>'Evaluation Results'!M66</f>
         <v>0.6166666666666667</v>
       </c>
-      <c r="K11" s="69">
+      <c r="K11" s="63">
         <f>'Evaluation Results'!P66</f>
-        <v>0.66999999999999993</v>
+        <v>0.7</v>
       </c>
       <c r="L11" s="16">
         <f>'Evaluation Results'!S66</f>
-        <v>0.71666666666666667</v>
-      </c>
-      <c r="M11" s="69">
+        <v>0.73399999999999999</v>
+      </c>
+      <c r="M11" s="63">
         <f>'Evaluation Results'!V66</f>
         <v>0.32</v>
       </c>
-      <c r="N11" s="69">
+      <c r="N11" s="63">
         <f>'Evaluation Results'!Y66</f>
         <v>0.38999999999999996</v>
       </c>
-      <c r="O11" s="69">
+      <c r="O11" s="63">
         <f>'Evaluation Results'!AB66</f>
         <v>0.34</v>
       </c>
-      <c r="P11" s="69">
+      <c r="P11" s="63">
         <f>'Evaluation Results'!AE66</f>
-        <v>0.66999999999999993</v>
-      </c>
-      <c r="Q11" s="70">
+        <v>0.70799999999999996</v>
+      </c>
+      <c r="Q11" s="64">
         <f>'Evaluation Results'!AH66</f>
-        <v>0.60666666666666658</v>
+        <v>0.63200000000000001</v>
       </c>
       <c r="R11" s="11" t="s">
         <v>27</v>
       </c>
       <c r="S11" s="15">
         <f t="shared" si="0"/>
-        <v>0.78244963892056252</v>
+        <v>0.80685934759733424</v>
       </c>
       <c r="T11" s="15">
         <f t="shared" si="1"/>
-        <v>3.9704637778641279</v>
+        <v>3.0870512425020014</v>
       </c>
       <c r="U11" s="15"/>
     </row>
@@ -2822,29 +2853,29 @@
       </c>
       <c r="D12" s="16">
         <f>[1]CKFCMA!N11</f>
-        <v>0.72366666666666679</v>
+        <v>0.71450000000000014</v>
       </c>
       <c r="E12" s="37">
         <f>[1]POCMA!Z12</f>
-        <v>0.87063119457485649</v>
-      </c>
-      <c r="G12" s="69">
+        <v>0.85582329317269079</v>
+      </c>
+      <c r="G12" s="63">
         <f>'Evaluation Results'!D67</f>
         <v>0.88</v>
       </c>
-      <c r="H12" s="69">
+      <c r="H12" s="63">
         <f>'Evaluation Results'!G67</f>
         <v>0.76</v>
       </c>
-      <c r="I12" s="69">
+      <c r="I12" s="63">
         <f>'Evaluation Results'!J67</f>
         <v>0.55000000000000004</v>
       </c>
-      <c r="J12" s="69">
+      <c r="J12" s="63">
         <f>'Evaluation Results'!M67</f>
         <v>0.92</v>
       </c>
-      <c r="K12" s="69">
+      <c r="K12" s="63">
         <f>'Evaluation Results'!P67</f>
         <v>0.84</v>
       </c>
@@ -2852,23 +2883,23 @@
         <f>'Evaluation Results'!S67</f>
         <v>0.92</v>
       </c>
-      <c r="M12" s="69">
+      <c r="M12" s="63">
         <f>'Evaluation Results'!V67</f>
         <v>0.44</v>
       </c>
-      <c r="N12" s="69">
+      <c r="N12" s="63">
         <f>'Evaluation Results'!Y67</f>
         <v>0.75</v>
       </c>
-      <c r="O12" s="69">
+      <c r="O12" s="63">
         <f>'Evaluation Results'!AB67</f>
         <v>0.69</v>
       </c>
-      <c r="P12" s="69">
+      <c r="P12" s="63">
         <f>'Evaluation Results'!AE67</f>
         <v>0.82</v>
       </c>
-      <c r="Q12" s="70">
+      <c r="Q12" s="64">
         <f>'Evaluation Results'!AH67</f>
         <v>0.87</v>
       </c>
@@ -2877,11 +2908,11 @@
       </c>
       <c r="S12" s="15">
         <f t="shared" si="0"/>
-        <v>0.9463382549726701</v>
+        <v>0.930242709970316</v>
       </c>
       <c r="T12" s="15">
         <f t="shared" si="1"/>
-        <v>0.24372789491056832</v>
+        <v>0.41186496991984017</v>
       </c>
       <c r="U12" s="15"/>
     </row>
@@ -2894,53 +2925,53 @@
       </c>
       <c r="D13" s="16">
         <f>[1]CKFCMA!N12</f>
-        <v>0.23100000000000001</v>
+        <v>0.47700000000000004</v>
       </c>
       <c r="E13" s="37">
         <f>[1]POCMA!Z13</f>
-        <v>0.89662921348314606</v>
-      </c>
-      <c r="G13" s="69">
+        <v>0.89996665555185063</v>
+      </c>
+      <c r="G13" s="63">
         <f>'Evaluation Results'!D68</f>
         <v>0.82000000000000006</v>
       </c>
-      <c r="H13" s="69">
+      <c r="H13" s="63">
         <f>'Evaluation Results'!G68</f>
         <v>0.66500000000000004</v>
       </c>
-      <c r="I13" s="69">
+      <c r="I13" s="63">
         <f>'Evaluation Results'!J68</f>
         <v>0.5</v>
       </c>
-      <c r="J13" s="69">
+      <c r="J13" s="63">
         <f>'Evaluation Results'!M68</f>
         <v>0.86499999999999999</v>
       </c>
-      <c r="K13" s="69">
+      <c r="K13" s="63">
         <f>'Evaluation Results'!P68</f>
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="L13" s="16">
         <f>'Evaluation Results'!S68</f>
-        <v>0.89500000000000002</v>
-      </c>
-      <c r="M13" s="69">
+        <v>0.89</v>
+      </c>
+      <c r="M13" s="63">
         <f>'Evaluation Results'!V68</f>
         <v>0.46499999999999997</v>
       </c>
-      <c r="N13" s="69">
+      <c r="N13" s="63">
         <f>'Evaluation Results'!Y68</f>
         <v>0.65</v>
       </c>
-      <c r="O13" s="69">
+      <c r="O13" s="63">
         <f>'Evaluation Results'!AB68</f>
         <v>0.71499999999999997</v>
       </c>
-      <c r="P13" s="69">
+      <c r="P13" s="63">
         <f>'Evaluation Results'!AE68</f>
-        <v>0.82</v>
-      </c>
-      <c r="Q13" s="70">
+        <v>0.84</v>
+      </c>
+      <c r="Q13" s="64">
         <f>'Evaluation Results'!AH68</f>
         <v>0.85499999999999998</v>
       </c>
@@ -2949,11 +2980,11 @@
       </c>
       <c r="S13" s="15">
         <f t="shared" si="0"/>
-        <v>0.99818295739348373</v>
+        <v>0.98892552797332345</v>
       </c>
       <c r="T13" s="15">
         <f t="shared" si="1"/>
-        <v>2.6543365736648566E-4</v>
+        <v>9.9334222889234623E-3</v>
       </c>
       <c r="U13" s="15"/>
     </row>
@@ -2966,66 +2997,66 @@
       </c>
       <c r="D14" s="16">
         <f>[1]CKFCMA!N13</f>
-        <v>0</v>
+        <v>0.60599999999999998</v>
       </c>
       <c r="E14" s="37">
         <f>[1]POCMA!Z14</f>
-        <v>0</v>
-      </c>
-      <c r="G14" s="69">
+        <v>0.94066317626527052</v>
+      </c>
+      <c r="G14" s="63">
         <f>'Evaluation Results'!D69</f>
         <v>0</v>
       </c>
-      <c r="H14" s="69">
+      <c r="H14" s="63">
         <f>'Evaluation Results'!G69</f>
         <v>0</v>
       </c>
-      <c r="I14" s="69">
+      <c r="I14" s="63">
         <f>'Evaluation Results'!J69</f>
         <v>0</v>
       </c>
-      <c r="J14" s="69">
+      <c r="J14" s="63">
         <f>'Evaluation Results'!M69</f>
         <v>0</v>
       </c>
-      <c r="K14" s="69">
+      <c r="K14" s="63">
         <f>'Evaluation Results'!P69</f>
-        <v>0</v>
+        <v>0.94</v>
       </c>
       <c r="L14" s="16">
         <f>'Evaluation Results'!S69</f>
-        <v>0</v>
-      </c>
-      <c r="M14" s="69">
+        <v>0.97</v>
+      </c>
+      <c r="M14" s="63">
         <f>'Evaluation Results'!V69</f>
         <v>0</v>
       </c>
-      <c r="N14" s="69">
+      <c r="N14" s="63">
         <f>'Evaluation Results'!Y69</f>
         <v>0</v>
       </c>
-      <c r="O14" s="69">
+      <c r="O14" s="63">
         <f>'Evaluation Results'!AB69</f>
         <v>0</v>
       </c>
-      <c r="P14" s="69">
+      <c r="P14" s="63">
         <f>'Evaluation Results'!AE69</f>
-        <v>0</v>
-      </c>
-      <c r="Q14" s="70">
+        <v>0.92</v>
+      </c>
+      <c r="Q14" s="64">
         <f>'Evaluation Results'!AH69</f>
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="R14" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="S14" s="15" t="str">
+      <c r="S14" s="15">
         <f t="shared" si="0"/>
-        <v/>
+        <v>0.96975585181986657</v>
       </c>
       <c r="T14" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8.6064922684258555E-2</v>
       </c>
       <c r="U14" s="15"/>
     </row>
@@ -3044,23 +3075,23 @@
         <f>[1]POCMA!Z15</f>
         <v>0.92404072043852781</v>
       </c>
-      <c r="G15" s="69">
+      <c r="G15" s="63">
         <f>'Evaluation Results'!D70</f>
         <v>0.95</v>
       </c>
-      <c r="H15" s="69">
+      <c r="H15" s="63">
         <f>'Evaluation Results'!G70</f>
         <v>0.92</v>
       </c>
-      <c r="I15" s="69">
+      <c r="I15" s="63">
         <f>'Evaluation Results'!J70</f>
         <v>0.82</v>
       </c>
-      <c r="J15" s="69">
+      <c r="J15" s="63">
         <f>'Evaluation Results'!M70</f>
         <v>0.91</v>
       </c>
-      <c r="K15" s="69">
+      <c r="K15" s="63">
         <f>'Evaluation Results'!P70</f>
         <v>0.93</v>
       </c>
@@ -3068,23 +3099,23 @@
         <f>'Evaluation Results'!S70</f>
         <v>0.93</v>
       </c>
-      <c r="M15" s="69">
+      <c r="M15" s="63">
         <f>'Evaluation Results'!V70</f>
         <v>0.74</v>
       </c>
-      <c r="N15" s="69">
+      <c r="N15" s="63">
         <f>'Evaluation Results'!Y70</f>
         <v>0.71</v>
       </c>
-      <c r="O15" s="69">
+      <c r="O15" s="63">
         <f>'Evaluation Results'!AB70</f>
         <v>0.75</v>
       </c>
-      <c r="P15" s="69">
+      <c r="P15" s="63">
         <f>'Evaluation Results'!AE70</f>
         <v>0.93</v>
       </c>
-      <c r="Q15" s="70">
+      <c r="Q15" s="64">
         <f>'Evaluation Results'!AH70</f>
         <v>0.91</v>
       </c>
@@ -3116,23 +3147,23 @@
         <f>[1]POCMA!Z16</f>
         <v>0.93005671077504726</v>
       </c>
-      <c r="G16" s="69">
+      <c r="G16" s="63">
         <f>'Evaluation Results'!D71</f>
         <v>0.93</v>
       </c>
-      <c r="H16" s="69">
+      <c r="H16" s="63">
         <f>'Evaluation Results'!G71</f>
         <v>0.91</v>
       </c>
-      <c r="I16" s="69">
+      <c r="I16" s="63">
         <f>'Evaluation Results'!J71</f>
         <v>0.67</v>
       </c>
-      <c r="J16" s="69">
+      <c r="J16" s="63">
         <f>'Evaluation Results'!M71</f>
         <v>0.93</v>
       </c>
-      <c r="K16" s="69">
+      <c r="K16" s="63">
         <f>'Evaluation Results'!P71</f>
         <v>0.88</v>
       </c>
@@ -3140,23 +3171,23 @@
         <f>'Evaluation Results'!S71</f>
         <v>0.89</v>
       </c>
-      <c r="M16" s="69">
+      <c r="M16" s="63">
         <f>'Evaluation Results'!V71</f>
         <v>0.84</v>
       </c>
-      <c r="N16" s="69">
+      <c r="N16" s="63">
         <f>'Evaluation Results'!Y71</f>
         <v>0.77</v>
       </c>
-      <c r="O16" s="69">
+      <c r="O16" s="63">
         <f>'Evaluation Results'!AB71</f>
         <v>0.85</v>
       </c>
-      <c r="P16" s="69">
+      <c r="P16" s="63">
         <f>'Evaluation Results'!AE71</f>
         <v>0.78</v>
       </c>
-      <c r="Q16" s="70">
+      <c r="Q16" s="64">
         <f>'Evaluation Results'!AH71</f>
         <v>0.89</v>
       </c>
@@ -3188,23 +3219,23 @@
         <f>[1]POCMA!Z17</f>
         <v>0.900709219858156</v>
       </c>
-      <c r="G17" s="69">
+      <c r="G17" s="63">
         <f>'Evaluation Results'!D72</f>
         <v>0.79</v>
       </c>
-      <c r="H17" s="69">
+      <c r="H17" s="63">
         <f>'Evaluation Results'!G72</f>
         <v>0.65</v>
       </c>
-      <c r="I17" s="69">
+      <c r="I17" s="63">
         <f>'Evaluation Results'!J72</f>
         <v>0.61</v>
       </c>
-      <c r="J17" s="69">
+      <c r="J17" s="63">
         <f>'Evaluation Results'!M72</f>
         <v>0.86</v>
       </c>
-      <c r="K17" s="69">
+      <c r="K17" s="63">
         <f>'Evaluation Results'!P72</f>
         <v>0.93</v>
       </c>
@@ -3212,23 +3243,23 @@
         <f>'Evaluation Results'!S72</f>
         <v>0.89</v>
       </c>
-      <c r="M17" s="69">
+      <c r="M17" s="63">
         <f>'Evaluation Results'!V72</f>
         <v>0.6</v>
       </c>
-      <c r="N17" s="69">
+      <c r="N17" s="63">
         <f>'Evaluation Results'!Y72</f>
         <v>0.61</v>
       </c>
-      <c r="O17" s="69">
+      <c r="O17" s="63">
         <f>'Evaluation Results'!AB72</f>
         <v>0.83</v>
       </c>
-      <c r="P17" s="69">
+      <c r="P17" s="63">
         <f>'Evaluation Results'!AE72</f>
         <v>0.91</v>
       </c>
-      <c r="Q17" s="70">
+      <c r="Q17" s="64">
         <f>'Evaluation Results'!AH72</f>
         <v>0.89</v>
       </c>
@@ -3254,66 +3285,66 @@
       </c>
       <c r="D18" s="16">
         <f>[1]CKFCMA!N17</f>
-        <v>0</v>
+        <v>0.74299999999999999</v>
       </c>
       <c r="E18" s="37">
         <f>[1]POCMA!Z18</f>
-        <v>0</v>
-      </c>
-      <c r="G18" s="69">
+        <v>0.8900928792569659</v>
+      </c>
+      <c r="G18" s="63">
         <f>'Evaluation Results'!D73</f>
         <v>0</v>
       </c>
-      <c r="H18" s="69">
+      <c r="H18" s="63">
         <f>'Evaluation Results'!G73</f>
         <v>0</v>
       </c>
-      <c r="I18" s="69">
+      <c r="I18" s="63">
         <f>'Evaluation Results'!J73</f>
         <v>0</v>
       </c>
-      <c r="J18" s="69">
+      <c r="J18" s="63">
         <f>'Evaluation Results'!M73</f>
         <v>0</v>
       </c>
-      <c r="K18" s="69">
+      <c r="K18" s="63">
         <f>'Evaluation Results'!P73</f>
-        <v>0</v>
+        <v>0.84</v>
       </c>
       <c r="L18" s="16">
         <f>'Evaluation Results'!S73</f>
-        <v>0</v>
-      </c>
-      <c r="M18" s="69">
+        <v>0.87</v>
+      </c>
+      <c r="M18" s="63">
         <f>'Evaluation Results'!V73</f>
         <v>0</v>
       </c>
-      <c r="N18" s="69">
+      <c r="N18" s="63">
         <f>'Evaluation Results'!Y73</f>
         <v>0</v>
       </c>
-      <c r="O18" s="69">
+      <c r="O18" s="63">
         <f>'Evaluation Results'!AB73</f>
         <v>0</v>
       </c>
-      <c r="P18" s="69">
+      <c r="P18" s="63">
         <f>'Evaluation Results'!AE73</f>
-        <v>0</v>
-      </c>
-      <c r="Q18" s="70">
+        <v>0.82</v>
+      </c>
+      <c r="Q18" s="64">
         <f>'Evaluation Results'!AH73</f>
-        <v>0</v>
+        <v>0.84</v>
       </c>
       <c r="R18" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="S18" s="15" t="str">
+      <c r="S18" s="15">
         <f>IF(E18 &gt;0,(MIN(E18,L18) / MAX(E18, L18)), "")</f>
-        <v/>
+        <v>0.97742608695652178</v>
       </c>
       <c r="T18" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.0372379683501054E-2</v>
       </c>
       <c r="U18" s="15"/>
     </row>
@@ -3332,23 +3363,23 @@
         <f>[1]POCMA!Z19</f>
         <v>0.98581560283687941</v>
       </c>
-      <c r="G19" s="69">
+      <c r="G19" s="63">
         <f>'Evaluation Results'!D74</f>
         <v>0.46</v>
       </c>
-      <c r="H19" s="69">
+      <c r="H19" s="63">
         <f>'Evaluation Results'!G74</f>
         <v>0.38</v>
       </c>
-      <c r="I19" s="69">
+      <c r="I19" s="63">
         <f>'Evaluation Results'!J74</f>
         <v>0.43</v>
       </c>
-      <c r="J19" s="69">
+      <c r="J19" s="63">
         <f>'Evaluation Results'!M74</f>
         <v>0.85</v>
       </c>
-      <c r="K19" s="69">
+      <c r="K19" s="63">
         <f>'Evaluation Results'!P74</f>
         <v>0.96</v>
       </c>
@@ -3356,23 +3387,23 @@
         <f>'Evaluation Results'!S74</f>
         <v>0.98</v>
       </c>
-      <c r="M19" s="69">
+      <c r="M19" s="63">
         <f>'Evaluation Results'!V74</f>
         <v>0.47</v>
       </c>
-      <c r="N19" s="69">
+      <c r="N19" s="63">
         <f>'Evaluation Results'!Y74</f>
         <v>0.79</v>
       </c>
-      <c r="O19" s="69">
+      <c r="O19" s="63">
         <f>'Evaluation Results'!AB74</f>
         <v>0.9</v>
       </c>
-      <c r="P19" s="69">
+      <c r="P19" s="63">
         <f>'Evaluation Results'!AE74</f>
         <v>0.96</v>
       </c>
-      <c r="Q19" s="70">
+      <c r="Q19" s="64">
         <f>'Evaluation Results'!AH74</f>
         <v>0.97</v>
       </c>
@@ -3404,23 +3435,23 @@
         <f>[1]POCMA!Z20</f>
         <v>0.95744680851063835</v>
       </c>
-      <c r="G20" s="69">
+      <c r="G20" s="63">
         <f>'Evaluation Results'!D75</f>
         <v>0.81</v>
       </c>
-      <c r="H20" s="69">
+      <c r="H20" s="63">
         <f>'Evaluation Results'!G75</f>
         <v>0.68</v>
       </c>
-      <c r="I20" s="69">
+      <c r="I20" s="63">
         <f>'Evaluation Results'!J75</f>
         <v>0.56000000000000005</v>
       </c>
-      <c r="J20" s="69">
+      <c r="J20" s="63">
         <f>'Evaluation Results'!M75</f>
         <v>0.96</v>
       </c>
-      <c r="K20" s="69">
+      <c r="K20" s="63">
         <f>'Evaluation Results'!P75</f>
         <v>0.97</v>
       </c>
@@ -3428,23 +3459,23 @@
         <f>'Evaluation Results'!S75</f>
         <v>0.98</v>
       </c>
-      <c r="M20" s="69">
+      <c r="M20" s="63">
         <f>'Evaluation Results'!V75</f>
         <v>0.74</v>
       </c>
-      <c r="N20" s="69">
+      <c r="N20" s="63">
         <f>'Evaluation Results'!Y75</f>
         <v>0.91</v>
       </c>
-      <c r="O20" s="69">
+      <c r="O20" s="63">
         <f>'Evaluation Results'!AB75</f>
         <v>0.91</v>
       </c>
-      <c r="P20" s="69">
+      <c r="P20" s="63">
         <f>'Evaluation Results'!AE75</f>
         <v>0.96</v>
       </c>
-      <c r="Q20" s="70">
+      <c r="Q20" s="64">
         <f>'Evaluation Results'!AH75</f>
         <v>0.97</v>
       </c>
@@ -3476,23 +3507,23 @@
         <f>[1]POCMA!Z21</f>
         <v>0.94670846394984332</v>
       </c>
-      <c r="G21" s="69">
+      <c r="G21" s="63">
         <f>'Evaluation Results'!D76</f>
         <v>0.69</v>
       </c>
-      <c r="H21" s="69">
+      <c r="H21" s="63">
         <f>'Evaluation Results'!G76</f>
         <v>0.55000000000000004</v>
       </c>
-      <c r="I21" s="69">
+      <c r="I21" s="63">
         <f>'Evaluation Results'!J76</f>
         <v>0.44</v>
       </c>
-      <c r="J21" s="69">
+      <c r="J21" s="63">
         <f>'Evaluation Results'!M76</f>
         <v>0.93</v>
       </c>
-      <c r="K21" s="69">
+      <c r="K21" s="63">
         <f>'Evaluation Results'!P76</f>
         <v>0.87</v>
       </c>
@@ -3500,23 +3531,23 @@
         <f>'Evaluation Results'!S76</f>
         <v>0.9</v>
       </c>
-      <c r="M21" s="69">
+      <c r="M21" s="63">
         <f>'Evaluation Results'!V76</f>
         <v>0.49</v>
       </c>
-      <c r="N21" s="69">
+      <c r="N21" s="63">
         <f>'Evaluation Results'!Y76</f>
         <v>0.77</v>
       </c>
-      <c r="O21" s="69">
+      <c r="O21" s="63">
         <f>'Evaluation Results'!AB76</f>
         <v>0.81</v>
       </c>
-      <c r="P21" s="69">
+      <c r="P21" s="63">
         <f>'Evaluation Results'!AE76</f>
         <v>0.89</v>
       </c>
-      <c r="Q21" s="70">
+      <c r="Q21" s="64">
         <f>'Evaluation Results'!AH76</f>
         <v>0.87</v>
       </c>
@@ -3542,66 +3573,66 @@
       </c>
       <c r="D22" s="16">
         <f>[1]CKFCMA!N21</f>
-        <v>0</v>
+        <v>0.69599999999999995</v>
       </c>
       <c r="E22" s="37">
         <f>[1]POCMA!Z22</f>
-        <v>0</v>
-      </c>
-      <c r="G22" s="69">
+        <v>0.87770897832817341</v>
+      </c>
+      <c r="G22" s="63">
         <f>'Evaluation Results'!D77</f>
         <v>0</v>
       </c>
-      <c r="H22" s="69">
+      <c r="H22" s="63">
         <f>'Evaluation Results'!G77</f>
         <v>0</v>
       </c>
-      <c r="I22" s="69">
+      <c r="I22" s="63">
         <f>'Evaluation Results'!J77</f>
         <v>0</v>
       </c>
-      <c r="J22" s="69">
+      <c r="J22" s="63">
         <f>'Evaluation Results'!M77</f>
         <v>0</v>
       </c>
-      <c r="K22" s="69">
+      <c r="K22" s="63">
         <f>'Evaluation Results'!P77</f>
-        <v>0</v>
+        <v>0.69</v>
       </c>
       <c r="L22" s="16">
         <f>'Evaluation Results'!S77</f>
-        <v>0</v>
-      </c>
-      <c r="M22" s="69">
+        <v>0.79</v>
+      </c>
+      <c r="M22" s="63">
         <f>'Evaluation Results'!V77</f>
         <v>0</v>
       </c>
-      <c r="N22" s="69">
+      <c r="N22" s="63">
         <f>'Evaluation Results'!Y77</f>
         <v>0</v>
       </c>
-      <c r="O22" s="69">
+      <c r="O22" s="63">
         <f>'Evaluation Results'!AB77</f>
         <v>0</v>
       </c>
-      <c r="P22" s="69">
+      <c r="P22" s="63">
         <f>'Evaluation Results'!AE77</f>
-        <v>0</v>
-      </c>
-      <c r="Q22" s="70">
+        <v>0.77</v>
+      </c>
+      <c r="Q22" s="64">
         <f>'Evaluation Results'!AH77</f>
-        <v>0</v>
+        <v>0.82</v>
       </c>
       <c r="R22" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="S22" s="15" t="str">
+      <c r="S22" s="15">
         <f t="shared" si="2"/>
-        <v/>
+        <v>0.90007054673721343</v>
       </c>
       <c r="T22" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.76928648793719856</v>
       </c>
       <c r="U22" s="15"/>
     </row>
@@ -3614,66 +3645,66 @@
       </c>
       <c r="D23" s="16">
         <f>[1]CKFCMA!N22</f>
-        <v>0</v>
+        <v>0.72499999999999998</v>
       </c>
       <c r="E23" s="37">
         <f>[1]POCMA!Z23</f>
-        <v>0</v>
-      </c>
-      <c r="G23" s="69">
+        <v>0.91797556719022688</v>
+      </c>
+      <c r="G23" s="63">
         <f>'Evaluation Results'!D78</f>
         <v>0</v>
       </c>
-      <c r="H23" s="69">
+      <c r="H23" s="63">
         <f>'Evaluation Results'!G78</f>
         <v>0</v>
       </c>
-      <c r="I23" s="69">
+      <c r="I23" s="63">
         <f>'Evaluation Results'!J78</f>
         <v>0</v>
       </c>
-      <c r="J23" s="69">
+      <c r="J23" s="63">
         <f>'Evaluation Results'!M78</f>
         <v>0</v>
       </c>
-      <c r="K23" s="69">
+      <c r="K23" s="63">
         <f>'Evaluation Results'!P78</f>
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="L23" s="16">
         <f>'Evaluation Results'!S78</f>
-        <v>0</v>
-      </c>
-      <c r="M23" s="69">
+        <v>0.91</v>
+      </c>
+      <c r="M23" s="63">
         <f>'Evaluation Results'!V78</f>
         <v>0</v>
       </c>
-      <c r="N23" s="69">
+      <c r="N23" s="63">
         <f>'Evaluation Results'!Y78</f>
         <v>0</v>
       </c>
-      <c r="O23" s="69">
+      <c r="O23" s="63">
         <f>'Evaluation Results'!AB78</f>
         <v>0</v>
       </c>
-      <c r="P23" s="69">
+      <c r="P23" s="63">
         <f>'Evaluation Results'!AE78</f>
-        <v>0</v>
-      </c>
-      <c r="Q23" s="70">
+        <v>0.9</v>
+      </c>
+      <c r="Q23" s="64">
         <f>'Evaluation Results'!AH78</f>
-        <v>0</v>
+        <v>0.91</v>
       </c>
       <c r="R23" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="S23" s="15" t="str">
+      <c r="S23" s="15">
         <f t="shared" si="2"/>
-        <v/>
+        <v>0.99131178707224332</v>
       </c>
       <c r="T23" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6.3609672005823029E-3</v>
       </c>
       <c r="U23" s="15"/>
     </row>
@@ -3686,66 +3717,66 @@
       </c>
       <c r="D24" s="16">
         <f>[1]CKFCMA!N23</f>
-        <v>0</v>
+        <v>0.63800000000000001</v>
       </c>
       <c r="E24" s="37">
         <f>[1]POCMA!Z24</f>
-        <v>0</v>
-      </c>
-      <c r="G24" s="69">
+        <v>0.97382198952879584</v>
+      </c>
+      <c r="G24" s="63">
         <f>'Evaluation Results'!D79</f>
         <v>0</v>
       </c>
-      <c r="H24" s="69">
+      <c r="H24" s="63">
         <f>'Evaluation Results'!G79</f>
         <v>0</v>
       </c>
-      <c r="I24" s="69">
+      <c r="I24" s="63">
         <f>'Evaluation Results'!J79</f>
         <v>0</v>
       </c>
-      <c r="J24" s="69">
+      <c r="J24" s="63">
         <f>'Evaluation Results'!M79</f>
         <v>0</v>
       </c>
-      <c r="K24" s="69">
+      <c r="K24" s="63">
         <f>'Evaluation Results'!P79</f>
-        <v>0</v>
+        <v>0.89</v>
       </c>
       <c r="L24" s="16">
         <f>'Evaluation Results'!S79</f>
-        <v>0</v>
-      </c>
-      <c r="M24" s="69">
+        <v>0.96</v>
+      </c>
+      <c r="M24" s="63">
         <f>'Evaluation Results'!V79</f>
         <v>0</v>
       </c>
-      <c r="N24" s="69">
+      <c r="N24" s="63">
         <f>'Evaluation Results'!Y79</f>
         <v>0</v>
       </c>
-      <c r="O24" s="69">
+      <c r="O24" s="63">
         <f>'Evaluation Results'!AB79</f>
         <v>0</v>
       </c>
-      <c r="P24" s="69">
+      <c r="P24" s="63">
         <f>'Evaluation Results'!AE79</f>
-        <v>0</v>
-      </c>
-      <c r="Q24" s="70">
+        <v>0.88</v>
+      </c>
+      <c r="Q24" s="64">
         <f>'Evaluation Results'!AH79</f>
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="R24" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="S24" s="15" t="str">
+      <c r="S24" s="15">
         <f t="shared" si="2"/>
-        <v/>
+        <v>0.98580645161290315</v>
       </c>
       <c r="T24" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.9104739453414281E-2</v>
       </c>
       <c r="U24" s="15"/>
     </row>
@@ -3758,66 +3789,66 @@
       </c>
       <c r="D25" s="16">
         <f>[1]CKFCMA!N24</f>
-        <v>0</v>
+        <v>0.42699999999999999</v>
       </c>
       <c r="E25" s="37">
         <f>[1]POCMA!Z25</f>
-        <v>0</v>
-      </c>
-      <c r="G25" s="69">
+        <v>0.90401396160558467</v>
+      </c>
+      <c r="G25" s="63">
         <f>'Evaluation Results'!D80</f>
         <v>0</v>
       </c>
-      <c r="H25" s="69">
+      <c r="H25" s="63">
         <f>'Evaluation Results'!G80</f>
         <v>0</v>
       </c>
-      <c r="I25" s="69">
+      <c r="I25" s="63">
         <f>'Evaluation Results'!J80</f>
         <v>0</v>
       </c>
-      <c r="J25" s="69">
+      <c r="J25" s="63">
         <f>'Evaluation Results'!M80</f>
         <v>0</v>
       </c>
-      <c r="K25" s="69">
+      <c r="K25" s="63">
         <f>'Evaluation Results'!P80</f>
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="L25" s="16">
         <f>'Evaluation Results'!S80</f>
-        <v>0</v>
-      </c>
-      <c r="M25" s="69">
+        <v>0.94</v>
+      </c>
+      <c r="M25" s="63">
         <f>'Evaluation Results'!V80</f>
         <v>0</v>
       </c>
-      <c r="N25" s="69">
+      <c r="N25" s="63">
         <f>'Evaluation Results'!Y80</f>
         <v>0</v>
       </c>
-      <c r="O25" s="69">
+      <c r="O25" s="63">
         <f>'Evaluation Results'!AB80</f>
         <v>0</v>
       </c>
-      <c r="P25" s="69">
+      <c r="P25" s="63">
         <f>'Evaluation Results'!AE80</f>
-        <v>0</v>
-      </c>
-      <c r="Q25" s="70">
+        <v>0.97</v>
+      </c>
+      <c r="Q25" s="64">
         <f>'Evaluation Results'!AH80</f>
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="R25" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="S25" s="15" t="str">
+      <c r="S25" s="15">
         <f t="shared" si="2"/>
-        <v/>
+        <v>0.96171698043147313</v>
       </c>
       <c r="T25" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.12949949593243304</v>
       </c>
       <c r="U25" s="15"/>
     </row>
@@ -3836,23 +3867,23 @@
         <f>[1]POCMA!Z26</f>
         <v>0.9592795614722005</v>
       </c>
-      <c r="G26" s="69">
+      <c r="G26" s="63">
         <f>'Evaluation Results'!D81</f>
         <v>0.88</v>
       </c>
-      <c r="H26" s="69">
+      <c r="H26" s="63">
         <f>'Evaluation Results'!G81</f>
         <v>0.68</v>
       </c>
-      <c r="I26" s="69">
+      <c r="I26" s="63">
         <f>'Evaluation Results'!J81</f>
         <v>0.59</v>
       </c>
-      <c r="J26" s="69">
+      <c r="J26" s="63">
         <f>'Evaluation Results'!M81</f>
         <v>0.94</v>
       </c>
-      <c r="K26" s="69">
+      <c r="K26" s="63">
         <f>'Evaluation Results'!P81</f>
         <v>0.9</v>
       </c>
@@ -3860,23 +3891,23 @@
         <f>'Evaluation Results'!S81</f>
         <v>0.94</v>
       </c>
-      <c r="M26" s="69">
+      <c r="M26" s="63">
         <f>'Evaluation Results'!V81</f>
         <v>0.74</v>
       </c>
-      <c r="N26" s="69">
+      <c r="N26" s="63">
         <f>'Evaluation Results'!Y81</f>
         <v>0.83</v>
       </c>
-      <c r="O26" s="69">
+      <c r="O26" s="63">
         <f>'Evaluation Results'!AB81</f>
         <v>0.89</v>
       </c>
-      <c r="P26" s="69">
+      <c r="P26" s="63">
         <f>'Evaluation Results'!AE81</f>
         <v>0.88</v>
       </c>
-      <c r="Q26" s="70">
+      <c r="Q26" s="64">
         <f>'Evaluation Results'!AH81</f>
         <v>0.94</v>
       </c>
@@ -3908,23 +3939,23 @@
         <f>[1]POCMA!Z27</f>
         <v>0.88469184890656061</v>
       </c>
-      <c r="G27" s="69">
+      <c r="G27" s="63">
         <f>'Evaluation Results'!D82</f>
         <v>0.67</v>
       </c>
-      <c r="H27" s="69">
+      <c r="H27" s="63">
         <f>'Evaluation Results'!G82</f>
         <v>0.45</v>
       </c>
-      <c r="I27" s="69">
+      <c r="I27" s="63">
         <f>'Evaluation Results'!J82</f>
         <v>0.47</v>
       </c>
-      <c r="J27" s="69">
+      <c r="J27" s="63">
         <f>'Evaluation Results'!M82</f>
         <v>0.92</v>
       </c>
-      <c r="K27" s="69">
+      <c r="K27" s="63">
         <f>'Evaluation Results'!P82</f>
         <v>0.84</v>
       </c>
@@ -3932,23 +3963,23 @@
         <f>'Evaluation Results'!S82</f>
         <v>0.93</v>
       </c>
-      <c r="M27" s="69">
+      <c r="M27" s="63">
         <f>'Evaluation Results'!V82</f>
         <v>0.33</v>
       </c>
-      <c r="N27" s="69">
+      <c r="N27" s="63">
         <f>'Evaluation Results'!Y82</f>
         <v>0.35</v>
       </c>
-      <c r="O27" s="69">
+      <c r="O27" s="63">
         <f>'Evaluation Results'!AB82</f>
         <v>0.33</v>
       </c>
-      <c r="P27" s="69">
+      <c r="P27" s="63">
         <f>'Evaluation Results'!AE82</f>
         <v>0.84</v>
       </c>
-      <c r="Q27" s="70">
+      <c r="Q27" s="64">
         <f>'Evaluation Results'!AH82</f>
         <v>0.88</v>
       </c>
@@ -3980,23 +4011,23 @@
         <f>[1]POCMA!Z28</f>
         <v>0.97415506958250497</v>
       </c>
-      <c r="G28" s="69">
+      <c r="G28" s="63">
         <f>'Evaluation Results'!D83</f>
         <v>0.49</v>
       </c>
-      <c r="H28" s="69">
+      <c r="H28" s="63">
         <f>'Evaluation Results'!G83</f>
         <v>0.22</v>
       </c>
-      <c r="I28" s="69">
+      <c r="I28" s="63">
         <f>'Evaluation Results'!J83</f>
         <v>0.23</v>
       </c>
-      <c r="J28" s="69">
+      <c r="J28" s="63">
         <f>'Evaluation Results'!M83</f>
         <v>0.65</v>
       </c>
-      <c r="K28" s="69">
+      <c r="K28" s="63">
         <f>'Evaluation Results'!P83</f>
         <v>0.85</v>
       </c>
@@ -4004,23 +4035,23 @@
         <f>'Evaluation Results'!S83</f>
         <v>0.96</v>
       </c>
-      <c r="M28" s="69">
+      <c r="M28" s="63">
         <f>'Evaluation Results'!V83</f>
         <v>0.04</v>
       </c>
-      <c r="N28" s="69">
+      <c r="N28" s="63">
         <f>'Evaluation Results'!Y83</f>
         <v>0.33</v>
       </c>
-      <c r="O28" s="69">
+      <c r="O28" s="63">
         <f>'Evaluation Results'!AB83</f>
         <v>0.5</v>
       </c>
-      <c r="P28" s="69">
+      <c r="P28" s="63">
         <f>'Evaluation Results'!AE83</f>
         <v>0.84</v>
       </c>
-      <c r="Q28" s="70">
+      <c r="Q28" s="64">
         <f>'Evaluation Results'!AH83</f>
         <v>0.93</v>
       </c>
@@ -4052,23 +4083,23 @@
         <f>[1]POCMA!Z29</f>
         <v>0.96620278330019882</v>
       </c>
-      <c r="G29" s="69">
+      <c r="G29" s="63">
         <f>'Evaluation Results'!D84</f>
         <v>0.62</v>
       </c>
-      <c r="H29" s="69">
+      <c r="H29" s="63">
         <f>'Evaluation Results'!G84</f>
         <v>0.41</v>
       </c>
-      <c r="I29" s="69">
+      <c r="I29" s="63">
         <f>'Evaluation Results'!J84</f>
         <v>0.48</v>
       </c>
-      <c r="J29" s="69">
+      <c r="J29" s="63">
         <f>'Evaluation Results'!M84</f>
         <v>0.92</v>
       </c>
-      <c r="K29" s="69">
+      <c r="K29" s="63">
         <f>'Evaluation Results'!P84</f>
         <v>0.83</v>
       </c>
@@ -4076,23 +4107,23 @@
         <f>'Evaluation Results'!S84</f>
         <v>0.96</v>
       </c>
-      <c r="M29" s="69">
+      <c r="M29" s="63">
         <f>'Evaluation Results'!V84</f>
         <v>0.38</v>
       </c>
-      <c r="N29" s="69">
+      <c r="N29" s="63">
         <f>'Evaluation Results'!Y84</f>
         <v>0.51</v>
       </c>
-      <c r="O29" s="69">
+      <c r="O29" s="63">
         <f>'Evaluation Results'!AB84</f>
         <v>0.51</v>
       </c>
-      <c r="P29" s="69">
+      <c r="P29" s="63">
         <f>'Evaluation Results'!AE84</f>
         <v>0.83</v>
       </c>
-      <c r="Q29" s="70">
+      <c r="Q29" s="64">
         <f>'Evaluation Results'!AH84</f>
         <v>0.91</v>
       </c>
@@ -4124,23 +4155,23 @@
         <f>[1]POCMA!Z30</f>
         <v>0.93970242756460454</v>
       </c>
-      <c r="G30" s="69">
+      <c r="G30" s="63">
         <f>'Evaluation Results'!D85</f>
         <v>0.71</v>
       </c>
-      <c r="H30" s="69">
+      <c r="H30" s="63">
         <f>'Evaluation Results'!G85</f>
         <v>0.44</v>
       </c>
-      <c r="I30" s="69">
+      <c r="I30" s="63">
         <f>'Evaluation Results'!J85</f>
         <v>0.33</v>
       </c>
-      <c r="J30" s="69">
+      <c r="J30" s="63">
         <f>'Evaluation Results'!M85</f>
         <v>0.87</v>
       </c>
-      <c r="K30" s="69">
+      <c r="K30" s="63">
         <f>'Evaluation Results'!P85</f>
         <v>0.9</v>
       </c>
@@ -4148,23 +4179,23 @@
         <f>'Evaluation Results'!S85</f>
         <v>0.92</v>
       </c>
-      <c r="M30" s="69">
+      <c r="M30" s="63">
         <f>'Evaluation Results'!V85</f>
         <v>0.28999999999999998</v>
       </c>
-      <c r="N30" s="69">
+      <c r="N30" s="63">
         <f>'Evaluation Results'!Y85</f>
         <v>0.66</v>
       </c>
-      <c r="O30" s="69">
+      <c r="O30" s="63">
         <f>'Evaluation Results'!AB85</f>
         <v>0.86</v>
       </c>
-      <c r="P30" s="69">
+      <c r="P30" s="63">
         <f>'Evaluation Results'!AE85</f>
         <v>0.91</v>
       </c>
-      <c r="Q30" s="70">
+      <c r="Q30" s="64">
         <f>'Evaluation Results'!AH85</f>
         <v>0.9</v>
       </c>
@@ -4188,20 +4219,20 @@
       <c r="J31" s="16"/>
       <c r="K31" s="16"/>
       <c r="L31" s="16"/>
-      <c r="M31" s="69"/>
-      <c r="N31" s="69"/>
-      <c r="O31" s="76"/>
-      <c r="P31" s="76"/>
-      <c r="Q31" s="76"/>
+      <c r="M31" s="63"/>
+      <c r="N31" s="63"/>
+      <c r="O31" s="68"/>
+      <c r="P31" s="68"/>
+      <c r="Q31" s="68"/>
     </row>
     <row r="32" spans="1:21">
-      <c r="A32" s="72" t="s">
+      <c r="A32" s="65" t="s">
         <v>98</v>
       </c>
-      <c r="B32" s="73" t="s">
+      <c r="B32" s="66" t="s">
         <v>101</v>
       </c>
-      <c r="C32" s="73"/>
+      <c r="C32" s="66"/>
       <c r="D32" s="2"/>
       <c r="E32"/>
       <c r="G32" s="16"/>
@@ -4214,13 +4245,13 @@
       <c r="N32" s="16"/>
     </row>
     <row r="33" spans="1:14">
-      <c r="A33" s="74" t="s">
+      <c r="A33" s="67" t="s">
         <v>99</v>
       </c>
-      <c r="B33" s="73" t="s">
+      <c r="B33" s="66" t="s">
         <v>102</v>
       </c>
-      <c r="C33" s="73"/>
+      <c r="C33" s="66"/>
       <c r="G33" s="16"/>
       <c r="H33" s="16"/>
       <c r="I33" s="16"/>
@@ -4509,7 +4540,7 @@
     <mergeCell ref="D4:E4"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="92" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="92" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4521,7 +4552,7 @@
   <dimension ref="A1:H57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4550,32 +4581,32 @@
       <c r="H2" s="16"/>
     </row>
     <row r="3" spans="1:8" ht="49.8" customHeight="1">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="70" t="s">
         <v>105</v>
       </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
     </row>
     <row r="4" spans="1:8" s="4" customFormat="1">
       <c r="A4" s="35"/>
       <c r="B4" s="6"/>
-      <c r="D4" s="77" t="s">
+      <c r="D4" s="73" t="s">
         <v>104</v>
       </c>
-      <c r="E4" s="75" t="s">
+      <c r="E4" s="72" t="s">
         <v>103</v>
       </c>
-      <c r="F4" s="71" t="s">
+      <c r="F4" s="69" t="s">
         <v>98</v>
       </c>
-      <c r="G4" s="71" t="s">
+      <c r="G4" s="69" t="s">
         <v>99</v>
       </c>
-      <c r="H4" s="71"/>
+      <c r="H4" s="69"/>
     </row>
     <row r="5" spans="1:8" s="7" customFormat="1">
       <c r="A5" s="32" t="s">
@@ -4584,11 +4615,11 @@
       <c r="B5" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="D5" s="77"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="71"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
     </row>
     <row r="6" spans="1:8" s="7" customFormat="1" ht="6" customHeight="1">
       <c r="A6" s="32"/>
@@ -4606,19 +4637,19 @@
       <c r="B7" s="43"/>
       <c r="D7" s="16">
         <f>[1]POCMA!Z7</f>
-        <v>0.93474426807760136</v>
+        <v>0.92773489997312142</v>
       </c>
       <c r="E7" s="16">
         <f>IF(D7 &gt;0,'Evaluation Results'!S62, "")</f>
-        <v>0.87333333333333341</v>
+        <v>0.86999999999999988</v>
       </c>
       <c r="F7" s="15">
-        <f>IF(D7 &gt;0,(MIN(D7,E7) / MAX(D7, E7)), "")</f>
-        <v>0.93430188679245296</v>
+        <f t="shared" ref="F7:F30" si="0">IF(D7 &gt;0,(MIN(D7,E7) / MAX(D7, E7)), "")</f>
+        <v>0.93776789040188713</v>
       </c>
       <c r="G7" s="15">
-        <f t="shared" ref="G7:G13" si="0">IF(D7&gt;0,100*(E7-D7)^2, "")</f>
-        <v>0.37713029061647368</v>
+        <f t="shared" ref="G7:G13" si="1">IF(D7&gt;0,100*(E7-D7)^2, "")</f>
+        <v>0.33333186749063487</v>
       </c>
       <c r="H7" s="15"/>
     </row>
@@ -4627,11 +4658,11 @@
       <c r="D8" s="16"/>
       <c r="E8" s="16"/>
       <c r="F8" s="15" t="str">
-        <f>IF(D8 &gt;0,(MIN(D8,E8) / MAX(D8, E8)), "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G8" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H8" s="15"/>
@@ -4645,19 +4676,19 @@
       </c>
       <c r="D9" s="16">
         <f>[1]POCMA!Z9</f>
-        <v>0.98746736292428194</v>
+        <v>0.97000638162093167</v>
       </c>
       <c r="E9" s="16">
         <f>IF(D9 &gt;0,'Evaluation Results'!S64, "")</f>
-        <v>0.93333333333333346</v>
+        <v>0.93</v>
       </c>
       <c r="F9" s="15">
-        <f>IF(D9 &gt;0,(MIN(D9,E9) / MAX(D9, E9)), "")</f>
-        <v>0.94517891768023987</v>
+        <f t="shared" si="0"/>
+        <v>0.95875657894736854</v>
       </c>
       <c r="G9" s="15">
-        <f t="shared" si="0"/>
-        <v>0.2930493159753686</v>
+        <f t="shared" si="1"/>
+        <v>0.16005105703996153</v>
       </c>
       <c r="H9" s="15"/>
     </row>
@@ -4670,19 +4701,19 @@
       </c>
       <c r="D10" s="16">
         <f>[1]POCMA!Z10</f>
-        <v>0.97284595300261101</v>
+        <v>0.96681557115507344</v>
       </c>
       <c r="E10" s="16">
         <f>IF(D10 &gt;0,'Evaluation Results'!S65, "")</f>
-        <v>0.91333333333333322</v>
+        <v>0.90199999999999991</v>
       </c>
       <c r="F10" s="15">
-        <f>IF(D10 &gt;0,(MIN(D10,E10) / MAX(D10, E10)), "")</f>
-        <v>0.93882626587940576</v>
+        <f t="shared" si="0"/>
+        <v>0.93295973597359727</v>
       </c>
       <c r="G10" s="15">
-        <f t="shared" si="0"/>
-        <v>0.35417518999001096</v>
+        <f t="shared" si="1"/>
+        <v>0.42010582641583988</v>
       </c>
       <c r="H10" s="15"/>
     </row>
@@ -4695,19 +4726,19 @@
       </c>
       <c r="D11" s="16">
         <f>[1]POCMA!Z11</f>
-        <v>0.91592689295039165</v>
+        <v>0.90970006381620927</v>
       </c>
       <c r="E11" s="16">
         <f>IF(D11 &gt;0,'Evaluation Results'!S66, "")</f>
-        <v>0.71666666666666667</v>
+        <v>0.73399999999999999</v>
       </c>
       <c r="F11" s="15">
-        <f>IF(D11 &gt;0,(MIN(D11,E11) / MAX(D11, E11)), "")</f>
-        <v>0.78244963892056252</v>
+        <f t="shared" si="0"/>
+        <v>0.80685934759733424</v>
       </c>
       <c r="G11" s="15">
-        <f t="shared" si="0"/>
-        <v>3.9704637778641279</v>
+        <f t="shared" si="1"/>
+        <v>3.0870512425020014</v>
       </c>
       <c r="H11" s="15"/>
     </row>
@@ -4720,19 +4751,19 @@
       </c>
       <c r="D12" s="16">
         <f>[1]POCMA!Z12</f>
-        <v>0.87063119457485649</v>
+        <v>0.85582329317269079</v>
       </c>
       <c r="E12" s="16">
         <f>IF(D12 &gt;0,'Evaluation Results'!S67, "")</f>
         <v>0.92</v>
       </c>
       <c r="F12" s="15">
-        <f>IF(D12 &gt;0,(MIN(D12,E12) / MAX(D12, E12)), "")</f>
-        <v>0.9463382549726701</v>
+        <f t="shared" si="0"/>
+        <v>0.930242709970316</v>
       </c>
       <c r="G12" s="15">
-        <f t="shared" si="0"/>
-        <v>0.24372789491056832</v>
+        <f t="shared" si="1"/>
+        <v>0.41186496991984017</v>
       </c>
       <c r="H12" s="15"/>
     </row>
@@ -4745,19 +4776,19 @@
       </c>
       <c r="D13" s="16">
         <f>[1]POCMA!Z13</f>
-        <v>0.89662921348314606</v>
+        <v>0.89996665555185063</v>
       </c>
       <c r="E13" s="16">
         <f>IF(D13 &gt;0,'Evaluation Results'!S68, "")</f>
-        <v>0.89500000000000002</v>
+        <v>0.89</v>
       </c>
       <c r="F13" s="15">
-        <f>IF(D13 &gt;0,(MIN(D13,E13) / MAX(D13, E13)), "")</f>
-        <v>0.99818295739348373</v>
+        <f t="shared" si="0"/>
+        <v>0.98892552797332345</v>
       </c>
       <c r="G13" s="15">
-        <f t="shared" si="0"/>
-        <v>2.6543365736648566E-4</v>
+        <f t="shared" si="1"/>
+        <v>9.9334222889234623E-3</v>
       </c>
       <c r="H13" s="15"/>
     </row>
@@ -4770,19 +4801,19 @@
       </c>
       <c r="D14" s="16">
         <f>[1]POCMA!Z14</f>
-        <v>0</v>
-      </c>
-      <c r="E14" s="16" t="str">
+        <v>0.94066317626527052</v>
+      </c>
+      <c r="E14" s="16">
         <f>IF(D14 &gt;0,'Evaluation Results'!S69, "")</f>
-        <v/>
-      </c>
-      <c r="F14" s="15" t="str">
-        <f>IF(D14 &gt;0,(MIN(D14,E14) / MAX(D14, E14)), "")</f>
-        <v/>
-      </c>
-      <c r="G14" s="15" t="str">
+        <v>0.97</v>
+      </c>
+      <c r="F14" s="15">
+        <f t="shared" si="0"/>
+        <v>0.96975585181986657</v>
+      </c>
+      <c r="G14" s="15">
         <f>IF(D14&gt;0,100*(E14-D14)^2, "")</f>
-        <v/>
+        <v>8.6064922684258555E-2</v>
       </c>
       <c r="H14" s="15"/>
     </row>
@@ -4802,11 +4833,11 @@
         <v>0.93</v>
       </c>
       <c r="F15" s="15">
-        <f>IF(D15 &gt;0,(MIN(D15,E15) / MAX(D15, E15)), "")</f>
+        <f t="shared" si="0"/>
         <v>0.99359217251454601</v>
       </c>
       <c r="G15" s="15">
-        <f t="shared" ref="G15:G30" si="1">IF(D15&gt;0,100*(E15-D15)^2, "")</f>
+        <f t="shared" ref="G15:G30" si="2">IF(D15&gt;0,100*(E15-D15)^2, "")</f>
         <v>3.5513012891780792E-3</v>
       </c>
       <c r="H15" s="15"/>
@@ -4827,11 +4858,11 @@
         <v>0.89</v>
       </c>
       <c r="F16" s="15">
-        <f>IF(D16 &gt;0,(MIN(D16,E16) / MAX(D16, E16)), "")</f>
+        <f t="shared" si="0"/>
         <v>0.95693089430894307</v>
       </c>
       <c r="G16" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.16045400781157859</v>
       </c>
       <c r="H16" s="15"/>
@@ -4852,11 +4883,11 @@
         <v>0.89</v>
       </c>
       <c r="F17" s="15">
-        <f>IF(D17 &gt;0,(MIN(D17,E17) / MAX(D17, E17)), "")</f>
+        <f t="shared" si="0"/>
         <v>0.98811023622047245</v>
       </c>
       <c r="G17" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.1468738997032246E-2</v>
       </c>
       <c r="H17" s="15"/>
@@ -4870,19 +4901,19 @@
       </c>
       <c r="D18" s="16">
         <f>[1]POCMA!Z18</f>
-        <v>0</v>
-      </c>
-      <c r="E18" s="16" t="str">
+        <v>0.8900928792569659</v>
+      </c>
+      <c r="E18" s="16">
         <f>IF(D18 &gt;0,'Evaluation Results'!S73, "")</f>
-        <v/>
-      </c>
-      <c r="F18" s="15" t="str">
-        <f>IF(D18 &gt;0,(MIN(D18,E18) / MAX(D18, E18)), "")</f>
-        <v/>
-      </c>
-      <c r="G18" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <v>0.87</v>
+      </c>
+      <c r="F18" s="15">
+        <f t="shared" si="0"/>
+        <v>0.97742608695652178</v>
+      </c>
+      <c r="G18" s="15">
+        <f t="shared" si="2"/>
+        <v>4.0372379683501054E-2</v>
       </c>
       <c r="H18" s="15"/>
     </row>
@@ -4902,11 +4933,11 @@
         <v>0.98</v>
       </c>
       <c r="F19" s="15">
-        <f>IF(D19 &gt;0,(MIN(D19,E19) / MAX(D19, E19)), "")</f>
+        <f t="shared" si="0"/>
         <v>0.99410071942446043</v>
       </c>
       <c r="G19" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.3821236356320074E-3</v>
       </c>
       <c r="H19" s="15"/>
@@ -4927,11 +4958,11 @@
         <v>0.98</v>
       </c>
       <c r="F20" s="15">
-        <f>IF(D20 &gt;0,(MIN(D20,E20) / MAX(D20, E20)), "")</f>
+        <f t="shared" si="0"/>
         <v>0.97698653929656976</v>
       </c>
       <c r="G20" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.0864644635581407E-2</v>
       </c>
       <c r="H20" s="15"/>
@@ -4952,11 +4983,11 @@
         <v>0.9</v>
       </c>
       <c r="F21" s="15">
-        <f>IF(D21 &gt;0,(MIN(D21,E21) / MAX(D21, E21)), "")</f>
+        <f t="shared" si="0"/>
         <v>0.95066225165562912</v>
       </c>
       <c r="G21" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.21816806045538104</v>
       </c>
       <c r="H21" s="15"/>
@@ -4970,19 +5001,19 @@
       </c>
       <c r="D22" s="16">
         <f>[1]POCMA!Z22</f>
-        <v>0</v>
-      </c>
-      <c r="E22" s="16" t="str">
+        <v>0.87770897832817341</v>
+      </c>
+      <c r="E22" s="16">
         <f>IF(D22 &gt;0,'Evaluation Results'!S77, "")</f>
-        <v/>
-      </c>
-      <c r="F22" s="15" t="str">
-        <f>IF(D22 &gt;0,(MIN(D22,E22) / MAX(D22, E22)), "")</f>
-        <v/>
-      </c>
-      <c r="G22" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <v>0.79</v>
+      </c>
+      <c r="F22" s="15">
+        <f t="shared" si="0"/>
+        <v>0.90007054673721343</v>
+      </c>
+      <c r="G22" s="15">
+        <f t="shared" si="2"/>
+        <v>0.76928648793719856</v>
       </c>
       <c r="H22" s="15"/>
     </row>
@@ -4995,19 +5026,19 @@
       </c>
       <c r="D23" s="16">
         <f>[1]POCMA!Z23</f>
-        <v>0</v>
-      </c>
-      <c r="E23" s="16" t="str">
+        <v>0.91797556719022688</v>
+      </c>
+      <c r="E23" s="16">
         <f>IF(D23 &gt;0,'Evaluation Results'!S78, "")</f>
-        <v/>
-      </c>
-      <c r="F23" s="15" t="str">
-        <f>IF(D23 &gt;0,(MIN(D23,E23) / MAX(D23, E23)), "")</f>
-        <v/>
-      </c>
-      <c r="G23" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <v>0.91</v>
+      </c>
+      <c r="F23" s="15">
+        <f t="shared" si="0"/>
+        <v>0.99131178707224332</v>
+      </c>
+      <c r="G23" s="15">
+        <f t="shared" si="2"/>
+        <v>6.3609672005823029E-3</v>
       </c>
       <c r="H23" s="15"/>
     </row>
@@ -5020,19 +5051,19 @@
       </c>
       <c r="D24" s="16">
         <f>[1]POCMA!Z24</f>
-        <v>0</v>
-      </c>
-      <c r="E24" s="16" t="str">
+        <v>0.97382198952879584</v>
+      </c>
+      <c r="E24" s="16">
         <f>IF(D24 &gt;0,'Evaluation Results'!S79, "")</f>
-        <v/>
-      </c>
-      <c r="F24" s="15" t="str">
-        <f>IF(D24 &gt;0,(MIN(D24,E24) / MAX(D24, E24)), "")</f>
-        <v/>
-      </c>
-      <c r="G24" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <v>0.96</v>
+      </c>
+      <c r="F24" s="15">
+        <f t="shared" si="0"/>
+        <v>0.98580645161290315</v>
+      </c>
+      <c r="G24" s="15">
+        <f t="shared" si="2"/>
+        <v>1.9104739453414281E-2</v>
       </c>
       <c r="H24" s="15"/>
     </row>
@@ -5045,19 +5076,19 @@
       </c>
       <c r="D25" s="16">
         <f>[1]POCMA!Z25</f>
-        <v>0</v>
-      </c>
-      <c r="E25" s="16" t="str">
+        <v>0.90401396160558467</v>
+      </c>
+      <c r="E25" s="16">
         <f>IF(D25 &gt;0,'Evaluation Results'!S80, "")</f>
-        <v/>
-      </c>
-      <c r="F25" s="15" t="str">
-        <f>IF(D25 &gt;0,(MIN(D25,E25) / MAX(D25, E25)), "")</f>
-        <v/>
-      </c>
-      <c r="G25" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <v>0.94</v>
+      </c>
+      <c r="F25" s="15">
+        <f t="shared" si="0"/>
+        <v>0.96171698043147313</v>
+      </c>
+      <c r="G25" s="15">
+        <f t="shared" si="2"/>
+        <v>0.12949949593243304</v>
       </c>
       <c r="H25" s="15"/>
     </row>
@@ -5077,11 +5108,11 @@
         <v>0.94</v>
       </c>
       <c r="F26" s="15">
-        <f>IF(D26 &gt;0,(MIN(D26,E26) / MAX(D26, E26)), "")</f>
+        <f t="shared" si="0"/>
         <v>0.97990204081632648</v>
       </c>
       <c r="G26" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.7170149056036016E-2</v>
       </c>
       <c r="H26" s="15"/>
@@ -5102,11 +5133,11 @@
         <v>0.93</v>
       </c>
       <c r="F27" s="15">
-        <f>IF(D27 &gt;0,(MIN(D27,E27) / MAX(D27, E27)), "")</f>
+        <f t="shared" si="0"/>
         <v>0.95128155796404357</v>
       </c>
       <c r="G27" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.20528285555059378</v>
       </c>
       <c r="H27" s="15"/>
@@ -5127,11 +5158,11 @@
         <v>0.96</v>
       </c>
       <c r="F28" s="15">
-        <f>IF(D28 &gt;0,(MIN(D28,E28) / MAX(D28, E28)), "")</f>
+        <f t="shared" si="0"/>
         <v>0.98546938775510196</v>
       </c>
       <c r="G28" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.0036599488555851E-2</v>
       </c>
       <c r="H28" s="15"/>
@@ -5152,11 +5183,11 @@
         <v>0.96</v>
       </c>
       <c r="F29" s="15">
-        <f>IF(D29 &gt;0,(MIN(D29,E29) / MAX(D29, E29)), "")</f>
+        <f t="shared" si="0"/>
         <v>0.99358024691358016</v>
       </c>
       <c r="G29" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.8474520669225802E-3</v>
       </c>
       <c r="H29" s="15"/>
@@ -5177,11 +5208,11 @@
         <v>0.92</v>
       </c>
       <c r="F30" s="15">
-        <f>IF(D30 &gt;0,(MIN(D30,E30) / MAX(D30, E30)), "")</f>
+        <f t="shared" si="0"/>
         <v>0.97903333333333342</v>
       </c>
       <c r="G30" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.8818565193848707E-2</v>
       </c>
       <c r="H30" s="15"/>
@@ -5316,8 +5347,8 @@
   </sheetPr>
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5345,15 +5376,15 @@
       <c r="G2" s="6"/>
     </row>
     <row r="3" spans="1:9" ht="43.8" customHeight="1">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="74" t="s">
         <v>97</v>
       </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
       <c r="H3" s="26"/>
       <c r="I3" s="26"/>
     </row>
@@ -5463,17 +5494,17 @@
       </c>
       <c r="C10" s="16">
         <f>'[2]PFEF T'!$O$60</f>
-        <v>0.67500000000000016</v>
+        <v>0.70299999999999996</v>
       </c>
       <c r="D10" s="16">
         <f>'[2]PFEA T'!$O$60</f>
-        <v>0.35299999999999998</v>
+        <v>0.35759999999999997</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="16">
         <f t="shared" si="0"/>
-        <v>0.51400000000000001</v>
+        <v>0.53029999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="4" customFormat="1">
@@ -5482,17 +5513,17 @@
       </c>
       <c r="C11" s="16">
         <f>'[2]PFEF T'!$R$60</f>
-        <v>0.70533333333333326</v>
+        <v>0.76419999999999999</v>
       </c>
       <c r="D11" s="16">
         <f>'[2]PFEA T'!$R$60</f>
-        <v>0.49333333333333335</v>
+        <v>0.48719999999999997</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="16">
         <f t="shared" si="0"/>
-        <v>0.59933333333333327</v>
+        <v>0.62569999999999992</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="4" customFormat="1">
@@ -5551,12 +5582,12 @@
       <c r="D15" s="6"/>
       <c r="E15" s="16">
         <f>'[3]PCFMA T'!$M$60</f>
-        <v>0.38999999999999996</v>
+        <v>0.37639999999999996</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="16">
         <f t="shared" si="0"/>
-        <v>0.38999999999999996</v>
+        <v>0.37639999999999996</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="4" customFormat="1">
@@ -5567,12 +5598,12 @@
       <c r="D16" s="6"/>
       <c r="E16" s="16">
         <f>'[3]PCFMA T'!$P$60</f>
-        <v>0.38199999999999995</v>
+        <v>0.38640000000000002</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="16">
         <f t="shared" si="0"/>
-        <v>0.38199999999999995</v>
+        <v>0.38640000000000002</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="4" customFormat="1">
@@ -5777,8 +5808,8 @@
   </sheetPr>
   <dimension ref="A1:AP85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AR59" sqref="AR59"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A84" sqref="A84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5850,70 +5881,70 @@
       <c r="B3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="58" t="s">
+      <c r="C3" s="76" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="58"/>
+      <c r="D3" s="76"/>
       <c r="E3" s="17"/>
-      <c r="F3" s="58" t="s">
+      <c r="F3" s="76" t="s">
         <v>73</v>
       </c>
-      <c r="G3" s="58"/>
+      <c r="G3" s="76"/>
       <c r="H3" s="17"/>
-      <c r="I3" s="58" t="s">
+      <c r="I3" s="76" t="s">
         <v>74</v>
       </c>
-      <c r="J3" s="58"/>
+      <c r="J3" s="76"/>
       <c r="K3" s="17"/>
-      <c r="L3" s="58" t="s">
+      <c r="L3" s="76" t="s">
         <v>77</v>
       </c>
-      <c r="M3" s="58"/>
+      <c r="M3" s="76"/>
       <c r="N3" s="17"/>
-      <c r="O3" s="58" t="s">
+      <c r="O3" s="76" t="s">
         <v>79</v>
       </c>
-      <c r="P3" s="58"/>
+      <c r="P3" s="76"/>
       <c r="Q3" s="17"/>
-      <c r="R3" s="58" t="s">
+      <c r="R3" s="76" t="s">
         <v>80</v>
       </c>
-      <c r="S3" s="58"/>
+      <c r="S3" s="76"/>
       <c r="T3" s="17"/>
-      <c r="U3" s="58" t="s">
+      <c r="U3" s="76" t="s">
         <v>54</v>
       </c>
-      <c r="V3" s="58"/>
+      <c r="V3" s="76"/>
       <c r="W3" s="17"/>
-      <c r="X3" s="58" t="s">
+      <c r="X3" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="Y3" s="58"/>
+      <c r="Y3" s="76"/>
       <c r="Z3" s="17"/>
-      <c r="AA3" s="58" t="s">
+      <c r="AA3" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="AB3" s="58"/>
+      <c r="AB3" s="76"/>
       <c r="AC3" s="17"/>
-      <c r="AD3" s="58" t="s">
+      <c r="AD3" s="76" t="s">
         <v>51</v>
       </c>
-      <c r="AE3" s="58"/>
+      <c r="AE3" s="76"/>
       <c r="AF3" s="17"/>
-      <c r="AG3" s="58" t="s">
+      <c r="AG3" s="76" t="s">
         <v>50</v>
       </c>
-      <c r="AH3" s="58"/>
+      <c r="AH3" s="76"/>
       <c r="AI3" s="17"/>
-      <c r="AJ3" s="58" t="s">
+      <c r="AJ3" s="76" t="s">
         <v>83</v>
       </c>
-      <c r="AK3" s="58"/>
+      <c r="AK3" s="76"/>
       <c r="AL3" s="54"/>
-      <c r="AM3" s="58" t="s">
+      <c r="AM3" s="76" t="s">
         <v>84</v>
       </c>
-      <c r="AN3" s="58"/>
+      <c r="AN3" s="76"/>
       <c r="AO3" s="54"/>
       <c r="AP3" s="9"/>
     </row>
@@ -6197,19 +6228,19 @@
         <v>0.6</v>
       </c>
       <c r="AJ7" s="50">
-        <f t="shared" ref="AJ7:AJ54" si="0">IF(C7&lt;&gt;"", AVERAGE(C7,F7,I7,L7,O7,R7,U7,X7,AA7,AD7,AG7), "")</f>
+        <f t="shared" ref="AJ7:AJ44" si="0">IF(C7&lt;&gt;"", AVERAGE(C7,F7,I7,L7,O7,R7,U7,X7,AA7,AD7,AG7), "")</f>
         <v>46.362727272727277</v>
       </c>
       <c r="AK7" s="28">
-        <f t="shared" ref="AK7:AK54" si="1">IF(D7&lt;&gt;"", AVERAGE(D7,G7,J7,M7,P7,S7,V7,Y7,AB7,AE7,AH7), "")</f>
+        <f t="shared" ref="AK7:AK44" si="1">IF(D7&lt;&gt;"", AVERAGE(D7,G7,J7,M7,P7,S7,V7,Y7,AB7,AE7,AH7), "")</f>
         <v>0.51818181818181808</v>
       </c>
       <c r="AM7" s="50">
-        <f t="shared" ref="AM7:AM54" si="2">IF(C7&lt;&gt;"", R7, "")</f>
+        <f t="shared" ref="AM7:AM44" si="2">IF(C7&lt;&gt;"", R7, "")</f>
         <v>62.72</v>
       </c>
       <c r="AN7" s="28">
-        <f t="shared" ref="AN7:AN54" si="3">IF(D7&lt;&gt;"", S7, "")</f>
+        <f t="shared" ref="AN7:AN44" si="3">IF(D7&lt;&gt;"", S7, "")</f>
         <v>0.67</v>
       </c>
       <c r="AO7" s="22"/>
@@ -7979,26 +8010,28 @@
       <c r="AG27" s="48"/>
       <c r="AH27" s="16"/>
       <c r="AJ27" s="50" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="AJ27" si="4">IF(C27&lt;&gt;"", AVERAGE(C27,F27,I27,L27,O27,R27,U27,X27,AA27,AD27,AG27), "")</f>
         <v/>
       </c>
-      <c r="AK27" s="28" t="str">
-        <f t="shared" si="1"/>
+      <c r="AK27" s="29" t="str">
+        <f t="shared" ref="AK27" si="5">IF(D27&lt;&gt;"", AVERAGE(D27,G27,J27,M27,P27,S27,V27,Y27,AB27,AE27,AH27), "")</f>
         <v/>
       </c>
       <c r="AM27" s="50" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="AM27" si="6">IF(C27&lt;&gt;"", R27, "")</f>
         <v/>
       </c>
-      <c r="AN27" s="28" t="str">
-        <f t="shared" si="3"/>
+      <c r="AN27" s="29" t="str">
+        <f t="shared" ref="AN27" si="7">IF(D27&lt;&gt;"", S27, "")</f>
         <v/>
       </c>
       <c r="AO27" s="22"/>
       <c r="AP27" s="11"/>
     </row>
     <row r="28" spans="1:42" s="4" customFormat="1">
-      <c r="A28" s="21"/>
+      <c r="A28" s="21" t="s">
+        <v>106</v>
+      </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
@@ -8010,35 +8043,51 @@
       <c r="J28" s="16"/>
       <c r="L28" s="48"/>
       <c r="M28" s="16"/>
-      <c r="O28" s="48"/>
-      <c r="P28" s="16"/>
-      <c r="R28" s="48"/>
-      <c r="S28" s="16"/>
+      <c r="O28" s="48">
+        <v>76.819999999999993</v>
+      </c>
+      <c r="P28" s="16">
+        <v>0.8</v>
+      </c>
+      <c r="R28" s="48">
+        <v>84.25</v>
+      </c>
+      <c r="S28" s="16">
+        <v>0.84</v>
+      </c>
       <c r="U28" s="48"/>
       <c r="V28" s="16"/>
       <c r="X28" s="48"/>
       <c r="Y28" s="16"/>
       <c r="AA28" s="48"/>
       <c r="AB28" s="16"/>
-      <c r="AD28" s="48"/>
-      <c r="AE28" s="16"/>
-      <c r="AG28" s="48"/>
-      <c r="AH28" s="16"/>
-      <c r="AJ28" s="50" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AK28" s="28" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AM28" s="50" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AN28" s="28" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="AD28" s="48">
+        <v>81.540000000000006</v>
+      </c>
+      <c r="AE28" s="16">
+        <v>0.82</v>
+      </c>
+      <c r="AG28" s="48">
+        <v>81.849999999999994</v>
+      </c>
+      <c r="AH28" s="16">
+        <v>0.82</v>
+      </c>
+      <c r="AJ28" s="50">
+        <f>IF(O28&lt;&gt;"", AVERAGE(C28,F28,I28,L28,O28,R28,U28,X28,AA28,AD28,AG28), "")</f>
+        <v>81.115000000000009</v>
+      </c>
+      <c r="AK28" s="29">
+        <f>IF(P28&lt;&gt;"", AVERAGE(D28,G28,J28,M28,P28,S28,V28,Y28,AB28,AE28,AH28), "")</f>
+        <v>0.82</v>
+      </c>
+      <c r="AM28" s="50">
+        <f>IF(O28&lt;&gt;"", R28, "")</f>
+        <v>84.25</v>
+      </c>
+      <c r="AN28" s="29">
+        <f>IF(P28&lt;&gt;"", S28, "")</f>
+        <v>0.84</v>
       </c>
       <c r="AO28" s="22"/>
       <c r="AP28" s="9" t="s">
@@ -8046,7 +8095,9 @@
       </c>
     </row>
     <row r="29" spans="1:42" s="4" customFormat="1">
-      <c r="A29" s="21"/>
+      <c r="A29" s="21" t="s">
+        <v>106</v>
+      </c>
       <c r="B29" s="5" t="s">
         <v>21</v>
       </c>
@@ -8058,35 +8109,51 @@
       <c r="J29" s="16"/>
       <c r="L29" s="48"/>
       <c r="M29" s="16"/>
-      <c r="O29" s="48"/>
-      <c r="P29" s="16"/>
-      <c r="R29" s="48"/>
-      <c r="S29" s="16"/>
+      <c r="O29" s="48">
+        <v>82.19</v>
+      </c>
+      <c r="P29" s="16">
+        <v>0.84</v>
+      </c>
+      <c r="R29" s="48">
+        <v>84.8</v>
+      </c>
+      <c r="S29" s="16">
+        <v>0.87</v>
+      </c>
       <c r="U29" s="48"/>
       <c r="V29" s="16"/>
       <c r="X29" s="48"/>
       <c r="Y29" s="16"/>
       <c r="AA29" s="48"/>
       <c r="AB29" s="16"/>
-      <c r="AD29" s="48"/>
-      <c r="AE29" s="16"/>
-      <c r="AG29" s="48"/>
-      <c r="AH29" s="16"/>
-      <c r="AJ29" s="50" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AK29" s="28" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AM29" s="50" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AN29" s="28" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="AD29" s="48">
+        <v>82.37</v>
+      </c>
+      <c r="AE29" s="16">
+        <v>0.82</v>
+      </c>
+      <c r="AG29" s="48">
+        <v>84.22</v>
+      </c>
+      <c r="AH29" s="16">
+        <v>0.84</v>
+      </c>
+      <c r="AJ29" s="50">
+        <f t="shared" ref="AJ29:AJ34" si="8">IF(O29&lt;&gt;"", AVERAGE(C29,F29,I29,L29,O29,R29,U29,X29,AA29,AD29,AG29), "")</f>
+        <v>83.39500000000001</v>
+      </c>
+      <c r="AK29" s="29">
+        <f t="shared" ref="AK29:AK34" si="9">IF(P29&lt;&gt;"", AVERAGE(D29,G29,J29,M29,P29,S29,V29,Y29,AB29,AE29,AH29), "")</f>
+        <v>0.84249999999999992</v>
+      </c>
+      <c r="AM29" s="50">
+        <f t="shared" ref="AM29:AM35" si="10">IF(O29&lt;&gt;"", R29, "")</f>
+        <v>84.8</v>
+      </c>
+      <c r="AN29" s="29">
+        <f t="shared" ref="AN29:AN35" si="11">IF(P29&lt;&gt;"", S29, "")</f>
+        <v>0.87</v>
       </c>
       <c r="AO29" s="22"/>
       <c r="AP29" s="11" t="s">
@@ -8094,7 +8161,9 @@
       </c>
     </row>
     <row r="30" spans="1:42" s="4" customFormat="1">
-      <c r="A30" s="21"/>
+      <c r="A30" s="21" t="s">
+        <v>106</v>
+      </c>
       <c r="B30" s="5" t="s">
         <v>22</v>
       </c>
@@ -8106,35 +8175,51 @@
       <c r="J30" s="16"/>
       <c r="L30" s="48"/>
       <c r="M30" s="16"/>
-      <c r="O30" s="48"/>
-      <c r="P30" s="16"/>
-      <c r="R30" s="48"/>
-      <c r="S30" s="16"/>
+      <c r="O30" s="48">
+        <v>62.81</v>
+      </c>
+      <c r="P30" s="16">
+        <v>0.69</v>
+      </c>
+      <c r="R30" s="48">
+        <v>83.59</v>
+      </c>
+      <c r="S30" s="16">
+        <v>0.79</v>
+      </c>
       <c r="U30" s="48"/>
       <c r="V30" s="16"/>
       <c r="X30" s="48"/>
       <c r="Y30" s="16"/>
       <c r="AA30" s="48"/>
       <c r="AB30" s="16"/>
-      <c r="AD30" s="48"/>
-      <c r="AE30" s="16"/>
-      <c r="AG30" s="48"/>
-      <c r="AH30" s="16"/>
-      <c r="AJ30" s="50" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AK30" s="28" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AM30" s="50" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AN30" s="28" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="AD30" s="48">
+        <v>76.77</v>
+      </c>
+      <c r="AE30" s="16">
+        <v>0.77</v>
+      </c>
+      <c r="AG30" s="48">
+        <v>82</v>
+      </c>
+      <c r="AH30" s="16">
+        <v>0.82</v>
+      </c>
+      <c r="AJ30" s="50">
+        <f t="shared" si="8"/>
+        <v>76.292500000000004</v>
+      </c>
+      <c r="AK30" s="29">
+        <f t="shared" si="9"/>
+        <v>0.76749999999999996</v>
+      </c>
+      <c r="AM30" s="50">
+        <f t="shared" si="10"/>
+        <v>83.59</v>
+      </c>
+      <c r="AN30" s="29">
+        <f t="shared" si="11"/>
+        <v>0.79</v>
       </c>
       <c r="AO30" s="22"/>
       <c r="AP30" s="11" t="s">
@@ -8142,7 +8227,9 @@
       </c>
     </row>
     <row r="31" spans="1:42" s="4" customFormat="1">
-      <c r="A31" s="21"/>
+      <c r="A31" s="21" t="s">
+        <v>106</v>
+      </c>
       <c r="B31" s="5" t="s">
         <v>5</v>
       </c>
@@ -8154,35 +8241,51 @@
       <c r="J31" s="16"/>
       <c r="L31" s="48"/>
       <c r="M31" s="16"/>
-      <c r="O31" s="48"/>
-      <c r="P31" s="16"/>
-      <c r="R31" s="48"/>
-      <c r="S31" s="16"/>
+      <c r="O31" s="48">
+        <v>79.06</v>
+      </c>
+      <c r="P31" s="16">
+        <v>0.84</v>
+      </c>
+      <c r="R31" s="48">
+        <v>93.31</v>
+      </c>
+      <c r="S31" s="16">
+        <v>0.92</v>
+      </c>
       <c r="U31" s="48"/>
       <c r="V31" s="16"/>
       <c r="X31" s="48"/>
       <c r="Y31" s="16"/>
       <c r="AA31" s="48"/>
       <c r="AB31" s="16"/>
-      <c r="AD31" s="48"/>
-      <c r="AE31" s="16"/>
-      <c r="AG31" s="48"/>
-      <c r="AH31" s="16"/>
-      <c r="AJ31" s="50" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AK31" s="28" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AM31" s="50" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AN31" s="28" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="AD31" s="48">
+        <v>87.74</v>
+      </c>
+      <c r="AE31" s="16">
+        <v>0.88</v>
+      </c>
+      <c r="AG31" s="48">
+        <v>92</v>
+      </c>
+      <c r="AH31" s="16">
+        <v>0.92</v>
+      </c>
+      <c r="AJ31" s="50">
+        <f t="shared" si="8"/>
+        <v>88.027500000000003</v>
+      </c>
+      <c r="AK31" s="29">
+        <f t="shared" si="9"/>
+        <v>0.89</v>
+      </c>
+      <c r="AM31" s="50">
+        <f t="shared" si="10"/>
+        <v>93.31</v>
+      </c>
+      <c r="AN31" s="29">
+        <f t="shared" si="11"/>
+        <v>0.92</v>
       </c>
       <c r="AO31" s="22"/>
       <c r="AP31" s="11" t="s">
@@ -8190,7 +8293,9 @@
       </c>
     </row>
     <row r="32" spans="1:42" s="4" customFormat="1">
-      <c r="A32" s="21"/>
+      <c r="A32" s="21" t="s">
+        <v>106</v>
+      </c>
       <c r="B32" s="5" t="s">
         <v>6</v>
       </c>
@@ -8202,35 +8307,51 @@
       <c r="J32" s="16"/>
       <c r="L32" s="48"/>
       <c r="M32" s="16"/>
-      <c r="O32" s="48"/>
-      <c r="P32" s="16"/>
-      <c r="R32" s="48"/>
-      <c r="S32" s="16"/>
+      <c r="O32" s="48">
+        <v>77.81</v>
+      </c>
+      <c r="P32" s="16">
+        <v>0.8</v>
+      </c>
+      <c r="R32" s="48">
+        <v>86.02</v>
+      </c>
+      <c r="S32" s="16">
+        <v>0.88</v>
+      </c>
       <c r="U32" s="48"/>
       <c r="V32" s="16"/>
       <c r="X32" s="48"/>
       <c r="Y32" s="16"/>
       <c r="AA32" s="48"/>
       <c r="AB32" s="16"/>
-      <c r="AD32" s="48"/>
-      <c r="AE32" s="16"/>
-      <c r="AG32" s="48"/>
-      <c r="AH32" s="16"/>
-      <c r="AJ32" s="50" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AK32" s="28" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AM32" s="50" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AN32" s="28" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="AD32" s="48">
+        <v>81.72</v>
+      </c>
+      <c r="AE32" s="16">
+        <v>0.82</v>
+      </c>
+      <c r="AG32" s="48">
+        <v>85.33</v>
+      </c>
+      <c r="AH32" s="16">
+        <v>0.85</v>
+      </c>
+      <c r="AJ32" s="50">
+        <f t="shared" si="8"/>
+        <v>82.72</v>
+      </c>
+      <c r="AK32" s="29">
+        <f t="shared" si="9"/>
+        <v>0.83750000000000002</v>
+      </c>
+      <c r="AM32" s="50">
+        <f t="shared" si="10"/>
+        <v>86.02</v>
+      </c>
+      <c r="AN32" s="29">
+        <f t="shared" si="11"/>
+        <v>0.88</v>
       </c>
       <c r="AO32" s="22"/>
       <c r="AP32" s="11" t="s">
@@ -8238,7 +8359,9 @@
       </c>
     </row>
     <row r="33" spans="1:42" s="4" customFormat="1">
-      <c r="A33" s="21"/>
+      <c r="A33" s="21" t="s">
+        <v>106</v>
+      </c>
       <c r="B33" s="5" t="s">
         <v>7</v>
       </c>
@@ -8250,35 +8373,51 @@
       <c r="J33" s="16"/>
       <c r="L33" s="48"/>
       <c r="M33" s="16"/>
-      <c r="O33" s="48"/>
-      <c r="P33" s="16"/>
-      <c r="R33" s="48"/>
-      <c r="S33" s="16"/>
+      <c r="O33" s="48">
+        <v>79.69</v>
+      </c>
+      <c r="P33" s="16">
+        <v>0.81</v>
+      </c>
+      <c r="R33" s="48">
+        <v>73.86</v>
+      </c>
+      <c r="S33" s="16">
+        <v>0.77</v>
+      </c>
       <c r="U33" s="48"/>
       <c r="V33" s="16"/>
       <c r="X33" s="48"/>
       <c r="Y33" s="16"/>
       <c r="AA33" s="48"/>
       <c r="AB33" s="16"/>
-      <c r="AD33" s="48"/>
-      <c r="AE33" s="16"/>
-      <c r="AG33" s="48"/>
-      <c r="AH33" s="16"/>
-      <c r="AJ33" s="50" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AK33" s="28" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AM33" s="50" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AN33" s="28" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="AD33" s="48">
+        <v>80</v>
+      </c>
+      <c r="AE33" s="16">
+        <v>0.8</v>
+      </c>
+      <c r="AG33" s="48">
+        <v>64.44</v>
+      </c>
+      <c r="AH33" s="16">
+        <v>0.64</v>
+      </c>
+      <c r="AJ33" s="50">
+        <f t="shared" si="8"/>
+        <v>74.497500000000002</v>
+      </c>
+      <c r="AK33" s="29">
+        <f t="shared" si="9"/>
+        <v>0.755</v>
+      </c>
+      <c r="AM33" s="50">
+        <f t="shared" si="10"/>
+        <v>73.86</v>
+      </c>
+      <c r="AN33" s="29">
+        <f t="shared" si="11"/>
+        <v>0.77</v>
       </c>
       <c r="AO33" s="22"/>
       <c r="AP33" s="11" t="s">
@@ -8286,7 +8425,9 @@
       </c>
     </row>
     <row r="34" spans="1:42" s="4" customFormat="1">
-      <c r="A34" s="21"/>
+      <c r="A34" s="21" t="s">
+        <v>106</v>
+      </c>
       <c r="B34" s="5" t="s">
         <v>8</v>
       </c>
@@ -8298,35 +8439,51 @@
       <c r="J34" s="16"/>
       <c r="L34" s="48"/>
       <c r="M34" s="16"/>
-      <c r="O34" s="48"/>
-      <c r="P34" s="16"/>
-      <c r="R34" s="48"/>
-      <c r="S34" s="16"/>
+      <c r="O34" s="48">
+        <v>79.38</v>
+      </c>
+      <c r="P34" s="16">
+        <v>0.81</v>
+      </c>
+      <c r="R34" s="48">
+        <v>83.94</v>
+      </c>
+      <c r="S34" s="16">
+        <v>0.84</v>
+      </c>
       <c r="U34" s="48"/>
       <c r="V34" s="16"/>
       <c r="X34" s="48"/>
       <c r="Y34" s="16"/>
       <c r="AA34" s="48"/>
       <c r="AB34" s="16"/>
-      <c r="AD34" s="48"/>
-      <c r="AE34" s="16"/>
-      <c r="AG34" s="48"/>
-      <c r="AH34" s="16"/>
-      <c r="AJ34" s="50" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AK34" s="28" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AM34" s="50" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AN34" s="28" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="AD34" s="48">
+        <v>80.650000000000006</v>
+      </c>
+      <c r="AE34" s="16">
+        <v>0.81</v>
+      </c>
+      <c r="AG34" s="48">
+        <v>83.11</v>
+      </c>
+      <c r="AH34" s="16">
+        <v>0.83</v>
+      </c>
+      <c r="AJ34" s="50">
+        <f t="shared" si="8"/>
+        <v>81.77</v>
+      </c>
+      <c r="AK34" s="29">
+        <f t="shared" si="9"/>
+        <v>0.82250000000000001</v>
+      </c>
+      <c r="AM34" s="50">
+        <f t="shared" si="10"/>
+        <v>83.94</v>
+      </c>
+      <c r="AN34" s="29">
+        <f t="shared" si="11"/>
+        <v>0.84</v>
       </c>
       <c r="AO34" s="22"/>
       <c r="AP34" s="11" t="s">
@@ -8367,11 +8524,11 @@
         <v/>
       </c>
       <c r="AM35" s="50" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AN35" s="28" t="str">
-        <f t="shared" si="3"/>
+      <c r="AN35" s="29" t="str">
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AO35" s="22"/>
@@ -9174,7 +9331,9 @@
       <c r="AP44" s="9"/>
     </row>
     <row r="45" spans="1:42" s="4" customFormat="1">
-      <c r="A45" s="21"/>
+      <c r="A45" s="21" t="s">
+        <v>107</v>
+      </c>
       <c r="B45" s="5" t="s">
         <v>10</v>
       </c>
@@ -9186,35 +9345,51 @@
       <c r="J45" s="16"/>
       <c r="L45" s="48"/>
       <c r="M45" s="16"/>
-      <c r="O45" s="48"/>
-      <c r="P45" s="16"/>
-      <c r="R45" s="48"/>
-      <c r="S45" s="16"/>
+      <c r="O45" s="48">
+        <v>85.69</v>
+      </c>
+      <c r="P45" s="16">
+        <v>0.87</v>
+      </c>
+      <c r="R45" s="48">
+        <v>89.43</v>
+      </c>
+      <c r="S45" s="16">
+        <v>0.89</v>
+      </c>
       <c r="U45" s="48"/>
       <c r="V45" s="16"/>
       <c r="X45" s="48"/>
       <c r="Y45" s="16"/>
       <c r="AA45" s="48"/>
       <c r="AB45" s="16"/>
-      <c r="AD45" s="48"/>
-      <c r="AE45" s="16"/>
-      <c r="AG45" s="48"/>
-      <c r="AH45" s="16"/>
-      <c r="AJ45" s="50" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AK45" s="28" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AM45" s="50" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AN45" s="28" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="AD45" s="48">
+        <v>87.41</v>
+      </c>
+      <c r="AE45" s="16">
+        <v>0.87</v>
+      </c>
+      <c r="AG45" s="48">
+        <v>86.39</v>
+      </c>
+      <c r="AH45" s="16">
+        <v>0.86</v>
+      </c>
+      <c r="AJ45" s="50">
+        <f>IF(O45&lt;&gt;"", AVERAGE(C45,F45,I45,L45,O45,R45,U45,X45,AA45,AD45,AG45), "")</f>
+        <v>87.22999999999999</v>
+      </c>
+      <c r="AK45" s="29">
+        <f>IF(P45&lt;&gt;"", AVERAGE(D45,G45,J45,M45,P45,S45,V45,Y45,AB45,AE45,AH45), "")</f>
+        <v>0.87249999999999994</v>
+      </c>
+      <c r="AM45" s="50">
+        <f>IF(O45&lt;&gt;"", R45, "")</f>
+        <v>89.43</v>
+      </c>
+      <c r="AN45" s="29">
+        <f>IF(P45&lt;&gt;"", S45, "")</f>
+        <v>0.89</v>
       </c>
       <c r="AO45" s="22"/>
       <c r="AP45" s="9" t="s">
@@ -9222,7 +9397,9 @@
       </c>
     </row>
     <row r="46" spans="1:42" s="4" customFormat="1">
-      <c r="A46" s="21"/>
+      <c r="A46" s="21" t="s">
+        <v>107</v>
+      </c>
       <c r="B46" s="5" t="s">
         <v>20</v>
       </c>
@@ -9234,35 +9411,51 @@
       <c r="J46" s="16"/>
       <c r="L46" s="48"/>
       <c r="M46" s="16"/>
-      <c r="O46" s="48"/>
-      <c r="P46" s="16"/>
-      <c r="R46" s="48"/>
-      <c r="S46" s="16"/>
+      <c r="O46" s="48">
+        <v>93.6</v>
+      </c>
+      <c r="P46" s="16">
+        <v>0.94</v>
+      </c>
+      <c r="R46" s="48">
+        <v>98</v>
+      </c>
+      <c r="S46" s="16">
+        <v>0.97</v>
+      </c>
       <c r="U46" s="48"/>
       <c r="V46" s="16"/>
       <c r="X46" s="48"/>
       <c r="Y46" s="16"/>
       <c r="AA46" s="48"/>
       <c r="AB46" s="16"/>
-      <c r="AD46" s="48"/>
-      <c r="AE46" s="16"/>
-      <c r="AG46" s="48"/>
-      <c r="AH46" s="16"/>
-      <c r="AJ46" s="50" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AK46" s="28" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AM46" s="50" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AN46" s="28" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="AD46" s="48">
+        <v>91.81</v>
+      </c>
+      <c r="AE46" s="16">
+        <v>0.92</v>
+      </c>
+      <c r="AG46" s="48">
+        <v>92.55</v>
+      </c>
+      <c r="AH46" s="16">
+        <v>0.93</v>
+      </c>
+      <c r="AJ46" s="50">
+        <f t="shared" ref="AJ46:AJ54" si="12">IF(O46&lt;&gt;"", AVERAGE(C46,F46,I46,L46,O46,R46,U46,X46,AA46,AD46,AG46), "")</f>
+        <v>93.99</v>
+      </c>
+      <c r="AK46" s="29">
+        <f t="shared" ref="AK46:AK54" si="13">IF(P46&lt;&gt;"", AVERAGE(D46,G46,J46,M46,P46,S46,V46,Y46,AB46,AE46,AH46), "")</f>
+        <v>0.94000000000000006</v>
+      </c>
+      <c r="AM46" s="50">
+        <f t="shared" ref="AM46:AM54" si="14">IF(O46&lt;&gt;"", R46, "")</f>
+        <v>98</v>
+      </c>
+      <c r="AN46" s="29">
+        <f t="shared" ref="AN46:AN54" si="15">IF(P46&lt;&gt;"", S46, "")</f>
+        <v>0.97</v>
       </c>
       <c r="AO46" s="22"/>
       <c r="AP46" s="9" t="s">
@@ -9270,7 +9463,9 @@
       </c>
     </row>
     <row r="47" spans="1:42" s="4" customFormat="1">
-      <c r="A47" s="21"/>
+      <c r="A47" s="21" t="s">
+        <v>107</v>
+      </c>
       <c r="B47" s="5" t="s">
         <v>2</v>
       </c>
@@ -9282,35 +9477,51 @@
       <c r="J47" s="16"/>
       <c r="L47" s="48"/>
       <c r="M47" s="16"/>
-      <c r="O47" s="48"/>
-      <c r="P47" s="16"/>
-      <c r="R47" s="48"/>
-      <c r="S47" s="16"/>
+      <c r="O47" s="48">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="P47" s="16">
+        <v>0.74</v>
+      </c>
+      <c r="R47" s="48">
+        <v>72.36</v>
+      </c>
+      <c r="S47" s="16">
+        <v>0.72</v>
+      </c>
       <c r="U47" s="48"/>
       <c r="V47" s="16"/>
       <c r="X47" s="48"/>
       <c r="Y47" s="16"/>
       <c r="AA47" s="48"/>
       <c r="AB47" s="16"/>
-      <c r="AD47" s="48"/>
-      <c r="AE47" s="16"/>
-      <c r="AG47" s="48"/>
-      <c r="AH47" s="16"/>
-      <c r="AJ47" s="50" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AK47" s="28" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AM47" s="50" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AN47" s="28" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="AD47" s="48">
+        <v>77.86</v>
+      </c>
+      <c r="AE47" s="16">
+        <v>0.78</v>
+      </c>
+      <c r="AG47" s="48">
+        <v>68.849999999999994</v>
+      </c>
+      <c r="AH47" s="16">
+        <v>0.69</v>
+      </c>
+      <c r="AJ47" s="50">
+        <f t="shared" si="12"/>
+        <v>72.367500000000007</v>
+      </c>
+      <c r="AK47" s="29">
+        <f t="shared" si="13"/>
+        <v>0.73250000000000004</v>
+      </c>
+      <c r="AM47" s="50">
+        <f t="shared" si="14"/>
+        <v>72.36</v>
+      </c>
+      <c r="AN47" s="29">
+        <f t="shared" si="15"/>
+        <v>0.72</v>
       </c>
       <c r="AO47" s="22"/>
       <c r="AP47" s="9" t="s">
@@ -9318,7 +9529,9 @@
       </c>
     </row>
     <row r="48" spans="1:42" s="4" customFormat="1">
-      <c r="A48" s="21"/>
+      <c r="A48" s="21" t="s">
+        <v>107</v>
+      </c>
       <c r="B48" s="5" t="s">
         <v>17</v>
       </c>
@@ -9330,35 +9543,51 @@
       <c r="J48" s="16"/>
       <c r="L48" s="48"/>
       <c r="M48" s="16"/>
-      <c r="O48" s="48"/>
-      <c r="P48" s="16"/>
-      <c r="R48" s="48"/>
-      <c r="S48" s="16"/>
+      <c r="O48" s="48">
+        <v>92.4</v>
+      </c>
+      <c r="P48" s="16">
+        <v>0.92</v>
+      </c>
+      <c r="R48" s="48">
+        <v>90.45</v>
+      </c>
+      <c r="S48" s="16">
+        <v>0.91</v>
+      </c>
       <c r="U48" s="48"/>
       <c r="V48" s="16"/>
       <c r="X48" s="48"/>
       <c r="Y48" s="16"/>
       <c r="AA48" s="48"/>
       <c r="AB48" s="16"/>
-      <c r="AD48" s="48"/>
-      <c r="AE48" s="16"/>
-      <c r="AG48" s="48"/>
-      <c r="AH48" s="16"/>
-      <c r="AJ48" s="50" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AK48" s="28" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AM48" s="50" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AN48" s="28" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="AD48" s="48">
+        <v>90</v>
+      </c>
+      <c r="AE48" s="16">
+        <v>0.9</v>
+      </c>
+      <c r="AG48" s="48">
+        <v>90.97</v>
+      </c>
+      <c r="AH48" s="16">
+        <v>0.91</v>
+      </c>
+      <c r="AJ48" s="50">
+        <f t="shared" si="12"/>
+        <v>90.955000000000013</v>
+      </c>
+      <c r="AK48" s="29">
+        <f t="shared" si="13"/>
+        <v>0.91</v>
+      </c>
+      <c r="AM48" s="50">
+        <f t="shared" si="14"/>
+        <v>90.45</v>
+      </c>
+      <c r="AN48" s="29">
+        <f t="shared" si="15"/>
+        <v>0.91</v>
       </c>
       <c r="AO48" s="22"/>
       <c r="AP48" s="9" t="s">
@@ -9366,7 +9595,9 @@
       </c>
     </row>
     <row r="49" spans="1:42" s="4" customFormat="1">
-      <c r="A49" s="21"/>
+      <c r="A49" s="21" t="s">
+        <v>107</v>
+      </c>
       <c r="B49" s="5" t="s">
         <v>18</v>
       </c>
@@ -9378,35 +9609,51 @@
       <c r="J49" s="16"/>
       <c r="L49" s="48"/>
       <c r="M49" s="16"/>
-      <c r="O49" s="48"/>
-      <c r="P49" s="16"/>
-      <c r="R49" s="48"/>
-      <c r="S49" s="16"/>
+      <c r="O49" s="48">
+        <v>87.2</v>
+      </c>
+      <c r="P49" s="16">
+        <v>0.89</v>
+      </c>
+      <c r="R49" s="48">
+        <v>97</v>
+      </c>
+      <c r="S49" s="16">
+        <v>0.96</v>
+      </c>
       <c r="U49" s="48"/>
       <c r="V49" s="16"/>
       <c r="X49" s="48"/>
       <c r="Y49" s="16"/>
       <c r="AA49" s="48"/>
       <c r="AB49" s="16"/>
-      <c r="AD49" s="48"/>
-      <c r="AE49" s="16"/>
-      <c r="AG49" s="48"/>
-      <c r="AH49" s="16"/>
-      <c r="AJ49" s="50" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AK49" s="28" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AM49" s="50" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AN49" s="28" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="AD49" s="48">
+        <v>88.26</v>
+      </c>
+      <c r="AE49" s="16">
+        <v>0.88</v>
+      </c>
+      <c r="AG49" s="48">
+        <v>95.03</v>
+      </c>
+      <c r="AH49" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="AJ49" s="50">
+        <f t="shared" si="12"/>
+        <v>91.872500000000002</v>
+      </c>
+      <c r="AK49" s="29">
+        <f t="shared" si="13"/>
+        <v>0.91999999999999993</v>
+      </c>
+      <c r="AM49" s="50">
+        <f t="shared" si="14"/>
+        <v>97</v>
+      </c>
+      <c r="AN49" s="29">
+        <f t="shared" si="15"/>
+        <v>0.96</v>
       </c>
       <c r="AO49" s="22"/>
       <c r="AP49" s="9" t="s">
@@ -9414,7 +9661,9 @@
       </c>
     </row>
     <row r="50" spans="1:42" s="4" customFormat="1">
-      <c r="A50" s="21"/>
+      <c r="A50" s="21" t="s">
+        <v>107</v>
+      </c>
       <c r="B50" s="5" t="s">
         <v>19</v>
       </c>
@@ -9426,35 +9675,51 @@
       <c r="J50" s="16"/>
       <c r="L50" s="48"/>
       <c r="M50" s="16"/>
-      <c r="O50" s="48"/>
-      <c r="P50" s="16"/>
-      <c r="R50" s="48"/>
-      <c r="S50" s="16"/>
+      <c r="O50" s="48">
+        <v>94.4</v>
+      </c>
+      <c r="P50" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="R50" s="48">
+        <v>93.5</v>
+      </c>
+      <c r="S50" s="16">
+        <v>0.94</v>
+      </c>
       <c r="U50" s="48"/>
       <c r="V50" s="16"/>
       <c r="X50" s="48"/>
       <c r="Y50" s="16"/>
       <c r="AA50" s="48"/>
       <c r="AB50" s="16"/>
-      <c r="AD50" s="48"/>
-      <c r="AE50" s="16"/>
-      <c r="AG50" s="48"/>
-      <c r="AH50" s="16"/>
-      <c r="AJ50" s="50" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AK50" s="28" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AM50" s="50" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AN50" s="28" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="AD50" s="48">
+        <v>96.8</v>
+      </c>
+      <c r="AE50" s="16">
+        <v>0.97</v>
+      </c>
+      <c r="AG50" s="48">
+        <v>95.34</v>
+      </c>
+      <c r="AH50" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="AJ50" s="50">
+        <f t="shared" si="12"/>
+        <v>95.009999999999991</v>
+      </c>
+      <c r="AK50" s="29">
+        <f t="shared" si="13"/>
+        <v>0.9524999999999999</v>
+      </c>
+      <c r="AM50" s="50">
+        <f t="shared" si="14"/>
+        <v>93.5</v>
+      </c>
+      <c r="AN50" s="29">
+        <f t="shared" si="15"/>
+        <v>0.94</v>
       </c>
       <c r="AO50" s="22"/>
       <c r="AP50" s="9" t="s">
@@ -9462,7 +9727,9 @@
       </c>
     </row>
     <row r="51" spans="1:42" s="4" customFormat="1">
-      <c r="A51" s="21"/>
+      <c r="A51" s="21" t="s">
+        <v>107</v>
+      </c>
       <c r="B51" s="5" t="s">
         <v>5</v>
       </c>
@@ -9474,35 +9741,51 @@
       <c r="J51" s="16"/>
       <c r="L51" s="48"/>
       <c r="M51" s="16"/>
-      <c r="O51" s="48"/>
-      <c r="P51" s="16"/>
-      <c r="R51" s="48"/>
-      <c r="S51" s="16"/>
+      <c r="O51" s="48">
+        <v>88.4</v>
+      </c>
+      <c r="P51" s="16">
+        <v>0.9</v>
+      </c>
+      <c r="R51" s="48">
+        <v>96.5</v>
+      </c>
+      <c r="S51" s="16">
+        <v>0.93</v>
+      </c>
       <c r="U51" s="48"/>
       <c r="V51" s="16"/>
       <c r="X51" s="48"/>
       <c r="Y51" s="16"/>
       <c r="AA51" s="48"/>
       <c r="AB51" s="16"/>
-      <c r="AD51" s="48"/>
-      <c r="AE51" s="16"/>
-      <c r="AG51" s="48"/>
-      <c r="AH51" s="16"/>
-      <c r="AJ51" s="50" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AK51" s="28" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AM51" s="50" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AN51" s="28" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="AD51" s="48">
+        <v>90.39</v>
+      </c>
+      <c r="AE51" s="16">
+        <v>0.9</v>
+      </c>
+      <c r="AG51" s="48">
+        <v>93.48</v>
+      </c>
+      <c r="AH51" s="16">
+        <v>0.93</v>
+      </c>
+      <c r="AJ51" s="50">
+        <f t="shared" si="12"/>
+        <v>92.19250000000001</v>
+      </c>
+      <c r="AK51" s="29">
+        <f t="shared" si="13"/>
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="AM51" s="50">
+        <f t="shared" si="14"/>
+        <v>96.5</v>
+      </c>
+      <c r="AN51" s="29">
+        <f t="shared" si="15"/>
+        <v>0.93</v>
       </c>
       <c r="AO51" s="22"/>
       <c r="AP51" s="9" t="s">
@@ -9510,7 +9793,9 @@
       </c>
     </row>
     <row r="52" spans="1:42" s="4" customFormat="1">
-      <c r="A52" s="21"/>
+      <c r="A52" s="21" t="s">
+        <v>107</v>
+      </c>
       <c r="B52" s="5" t="s">
         <v>6</v>
       </c>
@@ -9522,35 +9807,51 @@
       <c r="J52" s="16"/>
       <c r="L52" s="48"/>
       <c r="M52" s="16"/>
-      <c r="O52" s="48"/>
-      <c r="P52" s="16"/>
-      <c r="R52" s="48"/>
-      <c r="S52" s="16"/>
+      <c r="O52" s="48">
+        <v>88.8</v>
+      </c>
+      <c r="P52" s="16">
+        <v>0.9</v>
+      </c>
+      <c r="R52" s="48">
+        <v>90.5</v>
+      </c>
+      <c r="S52" s="16">
+        <v>0.89</v>
+      </c>
       <c r="U52" s="48"/>
       <c r="V52" s="16"/>
       <c r="X52" s="48"/>
       <c r="Y52" s="16"/>
       <c r="AA52" s="48"/>
       <c r="AB52" s="16"/>
-      <c r="AD52" s="48"/>
-      <c r="AE52" s="16"/>
-      <c r="AG52" s="48"/>
-      <c r="AH52" s="16"/>
-      <c r="AJ52" s="50" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AK52" s="28" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AM52" s="50" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AN52" s="28" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="AD52" s="48">
+        <v>87.19</v>
+      </c>
+      <c r="AE52" s="16">
+        <v>0.87</v>
+      </c>
+      <c r="AG52" s="48">
+        <v>83.54</v>
+      </c>
+      <c r="AH52" s="16">
+        <v>0.84</v>
+      </c>
+      <c r="AJ52" s="50">
+        <f t="shared" si="12"/>
+        <v>87.507500000000007</v>
+      </c>
+      <c r="AK52" s="29">
+        <f t="shared" si="13"/>
+        <v>0.875</v>
+      </c>
+      <c r="AM52" s="50">
+        <f t="shared" si="14"/>
+        <v>90.5</v>
+      </c>
+      <c r="AN52" s="29">
+        <f t="shared" si="15"/>
+        <v>0.89</v>
       </c>
       <c r="AO52" s="22"/>
       <c r="AP52" s="9" t="s">
@@ -9558,7 +9859,9 @@
       </c>
     </row>
     <row r="53" spans="1:42" s="4" customFormat="1">
-      <c r="A53" s="21"/>
+      <c r="A53" s="21" t="s">
+        <v>107</v>
+      </c>
       <c r="B53" s="5" t="s">
         <v>7</v>
       </c>
@@ -9570,35 +9873,51 @@
       <c r="J53" s="16"/>
       <c r="L53" s="48"/>
       <c r="M53" s="16"/>
-      <c r="O53" s="48"/>
-      <c r="P53" s="16"/>
-      <c r="R53" s="48"/>
-      <c r="S53" s="16"/>
+      <c r="O53" s="48">
+        <v>65.599999999999994</v>
+      </c>
+      <c r="P53" s="16">
+        <v>0.68</v>
+      </c>
+      <c r="R53" s="48">
+        <v>72.86</v>
+      </c>
+      <c r="S53" s="16">
+        <v>0.75</v>
+      </c>
       <c r="U53" s="48"/>
       <c r="V53" s="16"/>
       <c r="X53" s="48"/>
       <c r="Y53" s="16"/>
       <c r="AA53" s="48"/>
       <c r="AB53" s="16"/>
-      <c r="AD53" s="48"/>
-      <c r="AE53" s="16"/>
-      <c r="AG53" s="48"/>
-      <c r="AH53" s="16"/>
-      <c r="AJ53" s="50" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AK53" s="28" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AM53" s="50" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AN53" s="28" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="AD53" s="48">
+        <v>73.209999999999994</v>
+      </c>
+      <c r="AE53" s="16">
+        <v>0.73</v>
+      </c>
+      <c r="AG53" s="48">
+        <v>69.78</v>
+      </c>
+      <c r="AH53" s="16">
+        <v>0.7</v>
+      </c>
+      <c r="AJ53" s="50">
+        <f t="shared" si="12"/>
+        <v>70.362499999999983</v>
+      </c>
+      <c r="AK53" s="29">
+        <f t="shared" si="13"/>
+        <v>0.71500000000000008</v>
+      </c>
+      <c r="AM53" s="50">
+        <f t="shared" si="14"/>
+        <v>72.86</v>
+      </c>
+      <c r="AN53" s="29">
+        <f t="shared" si="15"/>
+        <v>0.75</v>
       </c>
       <c r="AO53" s="22"/>
       <c r="AP53" s="9" t="s">
@@ -9606,7 +9925,9 @@
       </c>
     </row>
     <row r="54" spans="1:42" s="4" customFormat="1">
-      <c r="A54" s="21"/>
+      <c r="A54" s="21" t="s">
+        <v>107</v>
+      </c>
       <c r="B54" s="5" t="s">
         <v>8</v>
       </c>
@@ -9618,35 +9939,51 @@
       <c r="J54" s="16"/>
       <c r="L54" s="48"/>
       <c r="M54" s="16"/>
-      <c r="O54" s="48"/>
-      <c r="P54" s="16"/>
-      <c r="R54" s="48"/>
-      <c r="S54" s="16"/>
+      <c r="O54" s="48">
+        <v>90.4</v>
+      </c>
+      <c r="P54" s="16">
+        <v>0.91</v>
+      </c>
+      <c r="R54" s="48">
+        <v>93.5</v>
+      </c>
+      <c r="S54" s="16">
+        <v>0.93</v>
+      </c>
       <c r="U54" s="48"/>
       <c r="V54" s="16"/>
       <c r="X54" s="48"/>
       <c r="Y54" s="16"/>
       <c r="AA54" s="48"/>
       <c r="AB54" s="16"/>
-      <c r="AD54" s="48"/>
-      <c r="AE54" s="16"/>
-      <c r="AG54" s="48"/>
-      <c r="AH54" s="16"/>
-      <c r="AJ54" s="50" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AK54" s="28" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AM54" s="50" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AN54" s="28" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="AD54" s="48">
+        <v>91.1</v>
+      </c>
+      <c r="AE54" s="16">
+        <v>0.91</v>
+      </c>
+      <c r="AG54" s="48">
+        <v>87.89</v>
+      </c>
+      <c r="AH54" s="16">
+        <v>0.88</v>
+      </c>
+      <c r="AJ54" s="50">
+        <f t="shared" si="12"/>
+        <v>90.722499999999997</v>
+      </c>
+      <c r="AK54" s="29">
+        <f t="shared" si="13"/>
+        <v>0.90749999999999997</v>
+      </c>
+      <c r="AM54" s="50">
+        <f t="shared" si="14"/>
+        <v>93.5</v>
+      </c>
+      <c r="AN54" s="29">
+        <f t="shared" si="15"/>
+        <v>0.93</v>
       </c>
       <c r="AO54" s="22"/>
       <c r="AP54" s="9" t="s">
@@ -9721,19 +10058,19 @@
       </c>
       <c r="O56" s="50">
         <f>AVERAGEIF(O6:O54, "&lt;&gt;")</f>
-        <v>80.66857142857144</v>
+        <v>81.186000000000021</v>
       </c>
       <c r="P56" s="28">
         <f>AVERAGEIF(P6:P54, "&lt;&gt;")</f>
-        <v>0.83142857142857129</v>
+        <v>0.83488888888888879</v>
       </c>
       <c r="R56" s="50">
         <f>AVERAGEIF(R6:R54, "&lt;&gt;")</f>
-        <v>86.804642857142852</v>
+        <v>86.986666666666665</v>
       </c>
       <c r="S56" s="28">
         <f>AVERAGEIF(S6:S54, "&lt;&gt;")</f>
-        <v>0.87464285714285717</v>
+        <v>0.87311111111111106</v>
       </c>
       <c r="U56" s="50">
         <f>AVERAGEIF(U6:U54, "&lt;&gt;")</f>
@@ -9761,35 +10098,35 @@
       </c>
       <c r="AD56" s="50">
         <f>AVERAGEIF(AD6:AD54, "&lt;&gt;")</f>
-        <v>82.702500000000029</v>
+        <v>83.566444444444443</v>
       </c>
       <c r="AE56" s="28">
         <f>AVERAGEIF(AE6:AE54, "&lt;&gt;")</f>
-        <v>0.82750000000000001</v>
+        <v>0.83599999999999997</v>
       </c>
       <c r="AG56" s="50">
         <f>AVERAGEIF(AG6:AG54, "&lt;&gt;")</f>
-        <v>83.214285714285694</v>
+        <v>83.705999999999989</v>
       </c>
       <c r="AH56" s="28">
         <f>AVERAGEIF(AH6:AH54, "&lt;&gt;")</f>
-        <v>0.83142857142857129</v>
+        <v>0.83644444444444477</v>
       </c>
       <c r="AJ56" s="50">
         <f>AVERAGEIF(AJ6:AJ54, "&lt;&gt;")</f>
-        <v>68.022207792207809</v>
+        <v>74.325540404040424</v>
       </c>
       <c r="AK56" s="28">
         <f>AVERAGEIF(AK6:AK54, "&lt;&gt;")</f>
-        <v>0.71659090909090906</v>
+        <v>0.76754545454545453</v>
       </c>
       <c r="AM56" s="50">
         <f>AVERAGEIF(AM6:AM54, "&lt;&gt;")</f>
-        <v>86.804642857142852</v>
+        <v>86.986666666666665</v>
       </c>
       <c r="AN56" s="28">
         <f>AVERAGEIF(AN6:AN54, "&lt;&gt;")</f>
-        <v>0.87464285714285717</v>
+        <v>0.87311111111111106</v>
       </c>
       <c r="AO56" s="22"/>
       <c r="AP56" s="9"/>
@@ -9828,69 +10165,69 @@
       <c r="A58" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C58" s="57" t="s">
+      <c r="C58" s="75" t="s">
         <v>72</v>
       </c>
-      <c r="D58" s="57"/>
+      <c r="D58" s="75"/>
       <c r="E58" s="6"/>
-      <c r="F58" s="57" t="s">
+      <c r="F58" s="75" t="s">
         <v>75</v>
       </c>
-      <c r="G58" s="57"/>
+      <c r="G58" s="75"/>
       <c r="H58" s="6"/>
-      <c r="I58" s="57" t="s">
+      <c r="I58" s="75" t="s">
         <v>76</v>
       </c>
-      <c r="J58" s="57"/>
+      <c r="J58" s="75"/>
       <c r="K58" s="6"/>
-      <c r="L58" s="57" t="s">
+      <c r="L58" s="75" t="s">
         <v>78</v>
       </c>
-      <c r="M58" s="57"/>
+      <c r="M58" s="75"/>
       <c r="N58" s="6"/>
-      <c r="O58" s="57" t="s">
+      <c r="O58" s="75" t="s">
         <v>81</v>
       </c>
-      <c r="P58" s="57"/>
+      <c r="P58" s="75"/>
       <c r="Q58" s="6"/>
-      <c r="R58" s="57" t="s">
+      <c r="R58" s="75" t="s">
         <v>82</v>
       </c>
-      <c r="S58" s="57"/>
+      <c r="S58" s="75"/>
       <c r="T58" s="6"/>
-      <c r="U58" s="57" t="s">
+      <c r="U58" s="75" t="s">
         <v>55</v>
       </c>
-      <c r="V58" s="57"/>
+      <c r="V58" s="75"/>
       <c r="W58" s="6"/>
-      <c r="X58" s="57" t="s">
+      <c r="X58" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="Y58" s="57"/>
+      <c r="Y58" s="75"/>
       <c r="Z58" s="6"/>
-      <c r="AA58" s="57" t="s">
+      <c r="AA58" s="75" t="s">
         <v>57</v>
       </c>
-      <c r="AB58" s="57"/>
+      <c r="AB58" s="75"/>
       <c r="AC58" s="6"/>
-      <c r="AD58" s="57" t="s">
+      <c r="AD58" s="75" t="s">
         <v>58</v>
       </c>
-      <c r="AE58" s="57"/>
+      <c r="AE58" s="75"/>
       <c r="AF58" s="6"/>
-      <c r="AG58" s="57" t="s">
+      <c r="AG58" s="75" t="s">
         <v>59</v>
       </c>
-      <c r="AH58" s="57"/>
+      <c r="AH58" s="75"/>
       <c r="AI58" s="6"/>
-      <c r="AJ58" s="59" t="s">
+      <c r="AJ58" s="77" t="s">
         <v>85</v>
       </c>
-      <c r="AK58" s="59"/>
-      <c r="AM58" s="59" t="s">
+      <c r="AK58" s="77"/>
+      <c r="AM58" s="77" t="s">
         <v>86</v>
       </c>
-      <c r="AN58" s="59"/>
+      <c r="AN58" s="77"/>
       <c r="AO58" s="20"/>
       <c r="AP58" s="9"/>
     </row>
@@ -9936,47 +10273,47 @@
       <c r="AP59" s="9"/>
     </row>
     <row r="61" spans="1:42">
-      <c r="B61" s="61" t="s">
+      <c r="B61" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="C61" s="62"/>
-      <c r="D61" s="63"/>
-      <c r="E61" s="64"/>
-      <c r="F61" s="62"/>
-      <c r="G61" s="63"/>
-      <c r="H61" s="64"/>
-      <c r="I61" s="62"/>
-      <c r="J61" s="63"/>
-      <c r="K61" s="64"/>
-      <c r="L61" s="62"/>
-      <c r="M61" s="63"/>
-      <c r="N61" s="64"/>
-      <c r="O61" s="62"/>
-      <c r="P61" s="63"/>
-      <c r="Q61" s="64"/>
-      <c r="R61" s="62"/>
-      <c r="S61" s="63"/>
-      <c r="T61" s="64"/>
-      <c r="U61" s="62"/>
-      <c r="V61" s="63"/>
-      <c r="W61" s="64"/>
-      <c r="X61" s="62"/>
-      <c r="Y61" s="63"/>
-      <c r="Z61" s="64"/>
-      <c r="AA61" s="62"/>
-      <c r="AB61" s="63"/>
-      <c r="AC61" s="64"/>
-      <c r="AD61" s="62"/>
-      <c r="AE61" s="63"/>
-      <c r="AF61" s="64"/>
-      <c r="AG61" s="62"/>
-      <c r="AH61" s="63"/>
-      <c r="AI61" s="64"/>
-      <c r="AJ61" s="65"/>
-      <c r="AK61" s="63"/>
-      <c r="AL61" s="64"/>
-      <c r="AM61" s="65"/>
-      <c r="AN61" s="63"/>
+      <c r="C61" s="57"/>
+      <c r="D61" s="58"/>
+      <c r="E61" s="59"/>
+      <c r="F61" s="57"/>
+      <c r="G61" s="58"/>
+      <c r="H61" s="59"/>
+      <c r="I61" s="57"/>
+      <c r="J61" s="58"/>
+      <c r="K61" s="59"/>
+      <c r="L61" s="57"/>
+      <c r="M61" s="58"/>
+      <c r="N61" s="59"/>
+      <c r="O61" s="57"/>
+      <c r="P61" s="58"/>
+      <c r="Q61" s="59"/>
+      <c r="R61" s="57"/>
+      <c r="S61" s="58"/>
+      <c r="T61" s="59"/>
+      <c r="U61" s="57"/>
+      <c r="V61" s="58"/>
+      <c r="W61" s="59"/>
+      <c r="X61" s="57"/>
+      <c r="Y61" s="58"/>
+      <c r="Z61" s="59"/>
+      <c r="AA61" s="57"/>
+      <c r="AB61" s="58"/>
+      <c r="AC61" s="59"/>
+      <c r="AD61" s="57"/>
+      <c r="AE61" s="58"/>
+      <c r="AF61" s="59"/>
+      <c r="AG61" s="57"/>
+      <c r="AH61" s="58"/>
+      <c r="AI61" s="59"/>
+      <c r="AJ61" s="60"/>
+      <c r="AK61" s="58"/>
+      <c r="AL61" s="59"/>
+      <c r="AM61" s="60"/>
+      <c r="AN61" s="58"/>
     </row>
     <row r="62" spans="1:42">
       <c r="B62" s="4" t="s">
@@ -10000,11 +10337,11 @@
       </c>
       <c r="P62" s="15">
         <f>AVERAGE(P6,P16,P28,P36,P45)</f>
-        <v>0.83000000000000007</v>
+        <v>0.83200000000000007</v>
       </c>
       <c r="S62" s="15">
         <f>AVERAGE(S6,S16,S28,S36,S45)</f>
-        <v>0.87333333333333341</v>
+        <v>0.86999999999999988</v>
       </c>
       <c r="V62" s="15">
         <f>AVERAGE(V6,V16,V28,V36,V45)</f>
@@ -10020,19 +10357,19 @@
       </c>
       <c r="AE62" s="15">
         <f>AVERAGE(AE6,AE16,AE28,AE36,AE45)</f>
-        <v>0.82666666666666666</v>
+        <v>0.83399999999999996</v>
       </c>
       <c r="AH62" s="15">
         <f>AVERAGE(AH6,AH16,AH28,AH36,AH45)</f>
-        <v>0.82666666666666666</v>
+        <v>0.83200000000000007</v>
       </c>
       <c r="AK62" s="15">
         <f>AVERAGE(AK6,AK16,AK28,AK36,AK45)</f>
-        <v>0.71363636363636351</v>
+        <v>0.76668181818181824</v>
       </c>
       <c r="AN62" s="15">
         <f>AVERAGE(AN6,AN16,AN28,AN36,AN45)</f>
-        <v>0.87333333333333341</v>
+        <v>0.86999999999999988</v>
       </c>
       <c r="AP62" s="9" t="s">
         <v>10</v>
@@ -10063,11 +10400,11 @@
       </c>
       <c r="P64" s="15">
         <f>AVERAGE(P11,P22,P31,P41,P51)</f>
-        <v>0.88</v>
+        <v>0.876</v>
       </c>
       <c r="S64" s="15">
         <f>AVERAGE(S11,S22,S31,S41,S51)</f>
-        <v>0.93333333333333346</v>
+        <v>0.93</v>
       </c>
       <c r="V64" s="15">
         <f>AVERAGE(V11,V22,V31,V41,V51)</f>
@@ -10083,19 +10420,19 @@
       </c>
       <c r="AE64" s="15">
         <f>AVERAGE(AE11,AE22,AE31,AE41,AE51)</f>
-        <v>0.89333333333333342</v>
+        <v>0.89200000000000002</v>
       </c>
       <c r="AH64" s="15">
         <f>AVERAGE(AH11,AH22,AH31,AH41,AH51)</f>
-        <v>0.95000000000000007</v>
+        <v>0.94000000000000006</v>
       </c>
       <c r="AK64" s="15">
         <f>AVERAGE(AK11,AK22,AK31,AK41,AK51)</f>
-        <v>0.80939393939393944</v>
+        <v>0.84663636363636352</v>
       </c>
       <c r="AN64" s="15">
         <f>AVERAGE(AN11,AN22,AN31,AN41,AN51)</f>
-        <v>0.93333333333333346</v>
+        <v>0.93</v>
       </c>
       <c r="AP64" s="11" t="s">
         <v>40</v>
@@ -10123,11 +10460,11 @@
       </c>
       <c r="P65" s="15">
         <f>AVERAGE(P12,P23,P32,P42,P52)</f>
-        <v>0.89333333333333342</v>
+        <v>0.876</v>
       </c>
       <c r="S65" s="15">
         <f>AVERAGE(S12,S23,S32,S42,S52)</f>
-        <v>0.91333333333333322</v>
+        <v>0.90199999999999991</v>
       </c>
       <c r="V65" s="15">
         <f>AVERAGE(V12,V23,V32,V42,V52)</f>
@@ -10143,19 +10480,19 @@
       </c>
       <c r="AE65" s="15">
         <f>AVERAGE(AE12,AE23,AE32,AE42,AE52)</f>
-        <v>0.89</v>
+        <v>0.87200000000000011</v>
       </c>
       <c r="AH65" s="15">
         <f>AVERAGE(AH12,AH23,AH32,AH42,AH52)</f>
-        <v>0.86333333333333329</v>
+        <v>0.85600000000000009</v>
       </c>
       <c r="AK65" s="15">
         <f>AVERAGE(AK12,AK23,AK32,AK42,AK52)</f>
-        <v>0.80878787878787894</v>
+        <v>0.82777272727272722</v>
       </c>
       <c r="AN65" s="15">
         <f>AVERAGE(AN12,AN23,AN32,AN42,AN52)</f>
-        <v>0.91333333333333322</v>
+        <v>0.90199999999999991</v>
       </c>
       <c r="AP65" s="11" t="s">
         <v>26</v>
@@ -10183,11 +10520,11 @@
       </c>
       <c r="P66" s="15">
         <f>AVERAGE(P13,P24,P33,P43,P53)</f>
-        <v>0.66999999999999993</v>
+        <v>0.7</v>
       </c>
       <c r="S66" s="15">
         <f>AVERAGE(S13,S24,S33,S43,S53)</f>
-        <v>0.71666666666666667</v>
+        <v>0.73399999999999999</v>
       </c>
       <c r="V66" s="15">
         <f>AVERAGE(V13,V24,V33,V43,V53)</f>
@@ -10203,19 +10540,19 @@
       </c>
       <c r="AE66" s="15">
         <f>AVERAGE(AE13,AE24,AE33,AE43,AE53)</f>
-        <v>0.66999999999999993</v>
+        <v>0.70799999999999996</v>
       </c>
       <c r="AH66" s="15">
         <f>AVERAGE(AH13,AH24,AH33,AH43,AH53)</f>
-        <v>0.60666666666666658</v>
+        <v>0.63200000000000001</v>
       </c>
       <c r="AK66" s="15">
         <f>AVERAGE(AK13,AK24,AK33,AK43,AK53)</f>
-        <v>0.54909090909090918</v>
+        <v>0.62345454545454548</v>
       </c>
       <c r="AN66" s="15">
         <f>AVERAGE(AN13,AN24,AN33,AN43,AN53)</f>
-        <v>0.71666666666666667</v>
+        <v>0.73399999999999999</v>
       </c>
       <c r="AP66" s="11" t="s">
         <v>27</v>
@@ -10230,51 +10567,51 @@
         <v>0.88</v>
       </c>
       <c r="G67" s="15">
-        <f t="shared" ref="G67" si="4">AVERAGE(G14)</f>
+        <f t="shared" ref="G67" si="16">AVERAGE(G14)</f>
         <v>0.76</v>
       </c>
       <c r="J67" s="15">
-        <f t="shared" ref="J67" si="5">AVERAGE(J14)</f>
+        <f t="shared" ref="J67" si="17">AVERAGE(J14)</f>
         <v>0.55000000000000004</v>
       </c>
       <c r="M67" s="15">
-        <f t="shared" ref="M67" si="6">AVERAGE(M14)</f>
+        <f t="shared" ref="M67" si="18">AVERAGE(M14)</f>
         <v>0.92</v>
       </c>
       <c r="P67" s="15">
-        <f t="shared" ref="P67" si="7">AVERAGE(P14)</f>
+        <f t="shared" ref="P67" si="19">AVERAGE(P14)</f>
         <v>0.84</v>
       </c>
       <c r="S67" s="15">
-        <f t="shared" ref="S67" si="8">AVERAGE(S14)</f>
+        <f t="shared" ref="S67" si="20">AVERAGE(S14)</f>
         <v>0.92</v>
       </c>
       <c r="V67" s="15">
-        <f t="shared" ref="V67" si="9">AVERAGE(V14)</f>
+        <f t="shared" ref="V67" si="21">AVERAGE(V14)</f>
         <v>0.44</v>
       </c>
       <c r="Y67" s="15">
-        <f t="shared" ref="Y67" si="10">AVERAGE(Y14)</f>
+        <f t="shared" ref="Y67" si="22">AVERAGE(Y14)</f>
         <v>0.75</v>
       </c>
       <c r="AB67" s="15">
-        <f t="shared" ref="AB67" si="11">AVERAGE(AB14)</f>
+        <f t="shared" ref="AB67" si="23">AVERAGE(AB14)</f>
         <v>0.69</v>
       </c>
       <c r="AE67" s="15">
-        <f t="shared" ref="AE67" si="12">AVERAGE(AE14)</f>
+        <f t="shared" ref="AE67" si="24">AVERAGE(AE14)</f>
         <v>0.82</v>
       </c>
       <c r="AH67" s="15">
-        <f t="shared" ref="AH67" si="13">AVERAGE(AH14)</f>
+        <f t="shared" ref="AH67" si="25">AVERAGE(AH14)</f>
         <v>0.87</v>
       </c>
       <c r="AK67" s="15">
-        <f t="shared" ref="AK67" si="14">AVERAGE(AK14)</f>
+        <f t="shared" ref="AK67" si="26">AVERAGE(AK14)</f>
         <v>0.76727272727272722</v>
       </c>
       <c r="AN67" s="15">
-        <f t="shared" ref="AN67" si="15">AVERAGE(AN14)</f>
+        <f t="shared" ref="AN67" si="27">AVERAGE(AN14)</f>
         <v>0.92</v>
       </c>
       <c r="AP67" s="11" t="s">
@@ -10303,11 +10640,11 @@
       </c>
       <c r="P68" s="15">
         <f>AVERAGE(P14,P25,P54,P34)</f>
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="S68" s="15">
         <f>AVERAGE(S14,S25,S54,S34)</f>
-        <v>0.89500000000000002</v>
+        <v>0.89</v>
       </c>
       <c r="V68" s="15">
         <f>AVERAGE(V14,V25,V54,V34)</f>
@@ -10323,7 +10660,7 @@
       </c>
       <c r="AE68" s="15">
         <f>AVERAGE(AE14,AE25,AE54,AE34)</f>
-        <v>0.82</v>
+        <v>0.84</v>
       </c>
       <c r="AH68" s="15">
         <f>AVERAGE(AH14,AH25,AH54,AH34)</f>
@@ -10331,11 +10668,11 @@
       </c>
       <c r="AK68" s="15">
         <f>AVERAGE(AK14,AK25,AK54,AK34)</f>
-        <v>0.73545454545454536</v>
+        <v>0.80022727272727256</v>
       </c>
       <c r="AN68" s="15">
         <f>AVERAGE(AN14,AN25,AN54,AN34)</f>
-        <v>0.89500000000000002</v>
+        <v>0.89</v>
       </c>
       <c r="AP68" s="11" t="s">
         <v>28</v>
@@ -10363,11 +10700,11 @@
       </c>
       <c r="P69" s="15">
         <f>P46</f>
-        <v>0</v>
+        <v>0.94</v>
       </c>
       <c r="S69" s="15">
         <f>S46</f>
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="V69" s="15">
         <f>V46</f>
@@ -10383,19 +10720,19 @@
       </c>
       <c r="AE69" s="15">
         <f>AE46</f>
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="AH69" s="15">
         <f>AH46</f>
-        <v>0</v>
-      </c>
-      <c r="AK69" s="15" t="str">
+        <v>0.93</v>
+      </c>
+      <c r="AK69" s="15">
         <f>AK46</f>
-        <v/>
-      </c>
-      <c r="AN69" s="15" t="str">
+        <v>0.94000000000000006</v>
+      </c>
+      <c r="AN69" s="15">
         <f>AN46</f>
-        <v/>
+        <v>0.97</v>
       </c>
       <c r="AP69" s="11" t="s">
         <v>61</v>
@@ -10603,11 +10940,11 @@
       </c>
       <c r="P73" s="15">
         <f>P29</f>
-        <v>0</v>
+        <v>0.84</v>
       </c>
       <c r="S73" s="15">
         <f>S29</f>
-        <v>0</v>
+        <v>0.87</v>
       </c>
       <c r="V73" s="15">
         <f>V29</f>
@@ -10623,19 +10960,19 @@
       </c>
       <c r="AE73" s="15">
         <f>AE29</f>
-        <v>0</v>
+        <v>0.82</v>
       </c>
       <c r="AH73" s="15">
         <f>AH29</f>
-        <v>0</v>
-      </c>
-      <c r="AK73" s="15" t="str">
+        <v>0.84</v>
+      </c>
+      <c r="AK73" s="15">
         <f>AK29</f>
-        <v/>
-      </c>
-      <c r="AN73" s="15" t="str">
+        <v>0.84249999999999992</v>
+      </c>
+      <c r="AN73" s="15">
         <f>AN29</f>
-        <v/>
+        <v>0.87</v>
       </c>
       <c r="AP73" s="11" t="s">
         <v>29</v>
@@ -10843,11 +11180,11 @@
       </c>
       <c r="P77" s="15">
         <f>P30</f>
-        <v>0</v>
+        <v>0.69</v>
       </c>
       <c r="S77" s="15">
         <f>S30</f>
-        <v>0</v>
+        <v>0.79</v>
       </c>
       <c r="V77" s="15">
         <f>V30</f>
@@ -10863,19 +11200,19 @@
       </c>
       <c r="AE77" s="15">
         <f>AE30</f>
-        <v>0</v>
+        <v>0.77</v>
       </c>
       <c r="AH77" s="15">
         <f>AH30</f>
-        <v>0</v>
-      </c>
-      <c r="AK77" s="15" t="str">
+        <v>0.82</v>
+      </c>
+      <c r="AK77" s="15">
         <f>AK30</f>
-        <v/>
-      </c>
-      <c r="AN77" s="15" t="str">
+        <v>0.76749999999999996</v>
+      </c>
+      <c r="AN77" s="15">
         <f>AN30</f>
-        <v/>
+        <v>0.79</v>
       </c>
       <c r="AP77" s="11" t="s">
         <v>32</v>
@@ -10903,11 +11240,11 @@
       </c>
       <c r="P78" s="15">
         <f>P48</f>
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="S78" s="15">
         <f>S48</f>
-        <v>0</v>
+        <v>0.91</v>
       </c>
       <c r="V78" s="15">
         <f>V48</f>
@@ -10923,19 +11260,19 @@
       </c>
       <c r="AE78" s="15">
         <f>AE48</f>
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="AH78" s="15">
         <f>AH48</f>
-        <v>0</v>
-      </c>
-      <c r="AK78" s="15" t="str">
+        <v>0.91</v>
+      </c>
+      <c r="AK78" s="15">
         <f>AK48</f>
-        <v/>
-      </c>
-      <c r="AN78" s="15" t="str">
+        <v>0.91</v>
+      </c>
+      <c r="AN78" s="15">
         <f>AN48</f>
-        <v/>
+        <v>0.91</v>
       </c>
       <c r="AP78" s="11" t="s">
         <v>45</v>
@@ -10946,56 +11283,56 @@
         <v>18</v>
       </c>
       <c r="D79" s="15">
-        <f t="shared" ref="D79:D80" si="16">D49</f>
+        <f t="shared" ref="D79:D80" si="28">D49</f>
         <v>0</v>
       </c>
       <c r="G79" s="15">
-        <f t="shared" ref="G79:G80" si="17">G49</f>
+        <f t="shared" ref="G79:G80" si="29">G49</f>
         <v>0</v>
       </c>
       <c r="J79" s="15">
-        <f t="shared" ref="J79:J80" si="18">J49</f>
+        <f t="shared" ref="J79:J80" si="30">J49</f>
         <v>0</v>
       </c>
       <c r="M79" s="15">
-        <f t="shared" ref="M79:M80" si="19">M49</f>
+        <f t="shared" ref="M79:M80" si="31">M49</f>
         <v>0</v>
       </c>
       <c r="P79" s="15">
-        <f t="shared" ref="P79:P80" si="20">P49</f>
+        <f t="shared" ref="P79:P80" si="32">P49</f>
+        <v>0.89</v>
+      </c>
+      <c r="S79" s="15">
+        <f t="shared" ref="S79:S80" si="33">S49</f>
+        <v>0.96</v>
+      </c>
+      <c r="V79" s="15">
+        <f t="shared" ref="V79:V80" si="34">V49</f>
         <v>0</v>
       </c>
-      <c r="S79" s="15">
-        <f t="shared" ref="S79:S80" si="21">S49</f>
+      <c r="Y79" s="15">
+        <f t="shared" ref="Y79:Y80" si="35">Y49</f>
         <v>0</v>
       </c>
-      <c r="V79" s="15">
-        <f t="shared" ref="V79:V80" si="22">V49</f>
+      <c r="AB79" s="15">
+        <f t="shared" ref="AB79:AB80" si="36">AB49</f>
         <v>0</v>
       </c>
-      <c r="Y79" s="15">
-        <f t="shared" ref="Y79:Y80" si="23">Y49</f>
-        <v>0</v>
-      </c>
-      <c r="AB79" s="15">
-        <f t="shared" ref="AB79:AB80" si="24">AB49</f>
-        <v>0</v>
-      </c>
       <c r="AE79" s="15">
-        <f t="shared" ref="AE79:AE80" si="25">AE49</f>
-        <v>0</v>
+        <f t="shared" ref="AE79:AE80" si="37">AE49</f>
+        <v>0.88</v>
       </c>
       <c r="AH79" s="15">
-        <f t="shared" ref="AH79:AH80" si="26">AH49</f>
-        <v>0</v>
-      </c>
-      <c r="AK79" s="15" t="str">
-        <f t="shared" ref="AK79:AK80" si="27">AK49</f>
-        <v/>
-      </c>
-      <c r="AN79" s="15" t="str">
-        <f t="shared" ref="AN79:AN80" si="28">AN49</f>
-        <v/>
+        <f t="shared" ref="AH79:AH80" si="38">AH49</f>
+        <v>0.95</v>
+      </c>
+      <c r="AK79" s="15">
+        <f t="shared" ref="AK79:AK80" si="39">AK49</f>
+        <v>0.91999999999999993</v>
+      </c>
+      <c r="AN79" s="15">
+        <f t="shared" ref="AN79:AN80" si="40">AN49</f>
+        <v>0.96</v>
       </c>
       <c r="AP79" s="11" t="s">
         <v>33</v>
@@ -11006,56 +11343,56 @@
         <v>19</v>
       </c>
       <c r="D80" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="G80" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="J80" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="M80" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="P80" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="32"/>
+        <v>0.95</v>
+      </c>
+      <c r="S80" s="15">
+        <f t="shared" si="33"/>
+        <v>0.94</v>
+      </c>
+      <c r="V80" s="15">
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="S80" s="15">
-        <f t="shared" si="21"/>
+      <c r="Y80" s="15">
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="V80" s="15">
-        <f t="shared" si="22"/>
+      <c r="AB80" s="15">
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="Y80" s="15">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AB80" s="15">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
       <c r="AE80" s="15">
-        <f t="shared" si="25"/>
-        <v>0</v>
+        <f t="shared" si="37"/>
+        <v>0.97</v>
       </c>
       <c r="AH80" s="15">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="AK80" s="15" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="AN80" s="15" t="str">
-        <f t="shared" si="28"/>
-        <v/>
+        <f t="shared" si="38"/>
+        <v>0.95</v>
+      </c>
+      <c r="AK80" s="15">
+        <f t="shared" si="39"/>
+        <v>0.9524999999999999</v>
+      </c>
+      <c r="AN80" s="15">
+        <f t="shared" si="40"/>
+        <v>0.94</v>
       </c>
       <c r="AP80" s="11" t="s">
         <v>34</v>
@@ -11186,55 +11523,55 @@
         <v>15</v>
       </c>
       <c r="D83" s="15">
-        <f t="shared" ref="D83:D84" si="29">D9</f>
+        <f t="shared" ref="D83:D84" si="41">D9</f>
         <v>0.49</v>
       </c>
       <c r="G83" s="15">
-        <f t="shared" ref="G83:G84" si="30">G9</f>
+        <f t="shared" ref="G83:G84" si="42">G9</f>
         <v>0.22</v>
       </c>
       <c r="J83" s="15">
-        <f t="shared" ref="J83:J84" si="31">J9</f>
+        <f t="shared" ref="J83:J84" si="43">J9</f>
         <v>0.23</v>
       </c>
       <c r="M83" s="15">
-        <f t="shared" ref="M83:M84" si="32">M9</f>
+        <f t="shared" ref="M83:M84" si="44">M9</f>
         <v>0.65</v>
       </c>
       <c r="P83" s="15">
-        <f t="shared" ref="P83:P84" si="33">P9</f>
+        <f t="shared" ref="P83:P84" si="45">P9</f>
         <v>0.85</v>
       </c>
       <c r="S83" s="15">
-        <f t="shared" ref="S83:S84" si="34">S9</f>
+        <f t="shared" ref="S83:S84" si="46">S9</f>
         <v>0.96</v>
       </c>
       <c r="V83" s="15">
-        <f t="shared" ref="V83:V84" si="35">V9</f>
+        <f t="shared" ref="V83:V84" si="47">V9</f>
         <v>0.04</v>
       </c>
       <c r="Y83" s="15">
-        <f t="shared" ref="Y83:Y84" si="36">Y9</f>
+        <f t="shared" ref="Y83:Y84" si="48">Y9</f>
         <v>0.33</v>
       </c>
       <c r="AB83" s="15">
-        <f t="shared" ref="AB83:AB84" si="37">AB9</f>
+        <f t="shared" ref="AB83:AB84" si="49">AB9</f>
         <v>0.5</v>
       </c>
       <c r="AE83" s="15">
-        <f t="shared" ref="AE83:AE84" si="38">AE9</f>
+        <f t="shared" ref="AE83:AE84" si="50">AE9</f>
         <v>0.84</v>
       </c>
       <c r="AH83" s="15">
-        <f t="shared" ref="AH83:AH84" si="39">AH9</f>
+        <f t="shared" ref="AH83:AH84" si="51">AH9</f>
         <v>0.93</v>
       </c>
       <c r="AK83" s="15">
-        <f t="shared" ref="AK83:AK84" si="40">AK9</f>
+        <f t="shared" ref="AK83:AK84" si="52">AK9</f>
         <v>0.54909090909090896</v>
       </c>
       <c r="AN83" s="15">
-        <f t="shared" ref="AN83:AN84" si="41">AN9</f>
+        <f t="shared" ref="AN83:AN84" si="53">AN9</f>
         <v>0.96</v>
       </c>
       <c r="AP83" s="11" t="s">
@@ -11246,55 +11583,55 @@
         <v>16</v>
       </c>
       <c r="D84" s="15">
-        <f t="shared" si="29"/>
+        <f t="shared" si="41"/>
         <v>0.62</v>
       </c>
       <c r="G84" s="15">
-        <f t="shared" si="30"/>
+        <f t="shared" si="42"/>
         <v>0.41</v>
       </c>
       <c r="J84" s="15">
-        <f t="shared" si="31"/>
+        <f t="shared" si="43"/>
         <v>0.48</v>
       </c>
       <c r="M84" s="15">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>0.92</v>
       </c>
       <c r="P84" s="15">
-        <f t="shared" si="33"/>
+        <f t="shared" si="45"/>
         <v>0.83</v>
       </c>
       <c r="S84" s="15">
-        <f t="shared" si="34"/>
+        <f t="shared" si="46"/>
         <v>0.96</v>
       </c>
       <c r="V84" s="15">
-        <f t="shared" si="35"/>
+        <f t="shared" si="47"/>
         <v>0.38</v>
       </c>
       <c r="Y84" s="15">
-        <f t="shared" si="36"/>
+        <f t="shared" si="48"/>
         <v>0.51</v>
       </c>
       <c r="AB84" s="15">
-        <f t="shared" si="37"/>
+        <f t="shared" si="49"/>
         <v>0.51</v>
       </c>
       <c r="AE84" s="15">
-        <f t="shared" si="38"/>
+        <f t="shared" si="50"/>
         <v>0.83</v>
       </c>
       <c r="AH84" s="15">
-        <f t="shared" si="39"/>
+        <f t="shared" si="51"/>
         <v>0.91</v>
       </c>
       <c r="AK84" s="15">
-        <f t="shared" si="40"/>
+        <f t="shared" si="52"/>
         <v>0.66909090909090907</v>
       </c>
       <c r="AN84" s="15">
-        <f t="shared" si="41"/>
+        <f t="shared" si="53"/>
         <v>0.96</v>
       </c>
       <c r="AP84" s="11" t="s">
@@ -11391,7 +11728,7 @@
     <mergeCell ref="AG3:AH3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="45" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="45" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>